--- a/wwwroot/Reports/FORMATO_CAUSACION.XLSX
+++ b/wwwroot/Reports/FORMATO_CAUSACION.XLSX
@@ -1897,7 +1897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="59">
   <si>
     <t xml:space="preserve">CONSORCIO PIPELINE MAINTENANCE ALLIANCE</t>
   </si>
@@ -2054,6 +2054,27 @@
   <si>
     <t xml:space="preserve">$ 452.120,00</t>
   </si>
+  <si>
+    <t xml:space="preserve">12/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1082778631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enuar Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMA</t>
+  </si>
 </sst>
 </file>
 
@@ -2165,7 +2186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2317,12 +2338,40 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
@@ -2402,6 +2451,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
@@ -36396,7 +36449,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>3</v>
@@ -36423,12 +36476,14 @@
         <v>4</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="6" customHeight="1"/>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
@@ -36488,701 +36543,3506 @@
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+    </row>
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+    </row>
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+    </row>
+    <row r="77" ht="15" customHeight="1">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+    </row>
+    <row r="79" ht="15" customHeight="1">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+    </row>
+    <row r="80" ht="15" customHeight="1">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+    </row>
+    <row r="81" ht="15" customHeight="1">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+    </row>
+    <row r="82" ht="15" customHeight="1">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+    </row>
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+    </row>
+    <row r="87" ht="15" customHeight="1">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+    </row>
+    <row r="89" ht="15" customHeight="1">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+    </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+    </row>
+    <row r="105" ht="15" customHeight="1">
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+    </row>
+    <row r="106" ht="15" customHeight="1">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+    </row>
+    <row r="114" ht="15" customHeight="1">
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+    </row>
+    <row r="117" ht="15" customHeight="1">
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+    </row>
+    <row r="118" ht="15" customHeight="1">
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+    </row>
+    <row r="119" ht="15" customHeight="1">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="36"/>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="A124" s="36"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="36"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+    </row>
+    <row r="125" ht="15" customHeight="1">
+      <c r="A125" s="36"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+    </row>
+    <row r="126" ht="15" customHeight="1">
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+    </row>
+    <row r="127" ht="15" customHeight="1">
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="A128" s="36"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="36"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="36"/>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36"/>
+      <c r="O133" s="36"/>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="36"/>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+    </row>
+    <row r="135" ht="15" customHeight="1">
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="36"/>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="36"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="36"/>
+      <c r="N139" s="36"/>
+      <c r="O139" s="36"/>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="36"/>
+      <c r="N140" s="36"/>
+      <c r="O140" s="36"/>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="36"/>
+      <c r="N141" s="36"/>
+      <c r="O141" s="36"/>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="A142" s="36"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="36"/>
+      <c r="N142" s="36"/>
+      <c r="O142" s="36"/>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="36"/>
+      <c r="N143" s="36"/>
+      <c r="O143" s="36"/>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="36"/>
+      <c r="N144" s="36"/>
+      <c r="O144" s="36"/>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="36"/>
+      <c r="N145" s="36"/>
+      <c r="O145" s="36"/>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="36"/>
+      <c r="N146" s="36"/>
+      <c r="O146" s="36"/>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="36"/>
+      <c r="N147" s="36"/>
+      <c r="O147" s="36"/>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="36"/>
+      <c r="N148" s="36"/>
+      <c r="O148" s="36"/>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="36"/>
+      <c r="N149" s="36"/>
+      <c r="O149" s="36"/>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="A150" s="36"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+      <c r="L150" s="36"/>
+      <c r="M150" s="36"/>
+      <c r="N150" s="36"/>
+      <c r="O150" s="36"/>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="A151" s="36"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+      <c r="L151" s="36"/>
+      <c r="M151" s="36"/>
+      <c r="N151" s="36"/>
+      <c r="O151" s="36"/>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="A152" s="36"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+      <c r="L152" s="36"/>
+      <c r="M152" s="36"/>
+      <c r="N152" s="36"/>
+      <c r="O152" s="36"/>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
+      <c r="L153" s="36"/>
+      <c r="M153" s="36"/>
+      <c r="N153" s="36"/>
+      <c r="O153" s="36"/>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+      <c r="L154" s="36"/>
+      <c r="M154" s="36"/>
+      <c r="N154" s="36"/>
+      <c r="O154" s="36"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
+      <c r="L155" s="36"/>
+      <c r="M155" s="36"/>
+      <c r="N155" s="36"/>
+      <c r="O155" s="36"/>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="A156" s="36"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
+      <c r="L156" s="36"/>
+      <c r="M156" s="36"/>
+      <c r="N156" s="36"/>
+      <c r="O156" s="36"/>
+    </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="A157" s="36"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
+      <c r="L157" s="36"/>
+      <c r="M157" s="36"/>
+      <c r="N157" s="36"/>
+      <c r="O157" s="36"/>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="A158" s="36"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
+      <c r="L158" s="36"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36"/>
+      <c r="O158" s="36"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="A159" s="36"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
+      <c r="L159" s="36"/>
+      <c r="M159" s="36"/>
+      <c r="N159" s="36"/>
+      <c r="O159" s="36"/>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="A160" s="36"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
+      <c r="L160" s="36"/>
+      <c r="M160" s="36"/>
+      <c r="N160" s="36"/>
+      <c r="O160" s="36"/>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="A161" s="36"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
+      <c r="L161" s="36"/>
+      <c r="M161" s="36"/>
+      <c r="N161" s="36"/>
+      <c r="O161" s="36"/>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="A162" s="36"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
+      <c r="L162" s="36"/>
+      <c r="M162" s="36"/>
+      <c r="N162" s="36"/>
+      <c r="O162" s="36"/>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="A163" s="36"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
+      <c r="L163" s="36"/>
+      <c r="M163" s="36"/>
+      <c r="N163" s="36"/>
+      <c r="O163" s="36"/>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="A164" s="36"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+      <c r="L164" s="36"/>
+      <c r="M164" s="36"/>
+      <c r="N164" s="36"/>
+      <c r="O164" s="36"/>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="A165" s="36"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+      <c r="L165" s="36"/>
+      <c r="M165" s="36"/>
+      <c r="N165" s="36"/>
+      <c r="O165" s="36"/>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
+      <c r="L166" s="36"/>
+      <c r="M166" s="36"/>
+      <c r="N166" s="36"/>
+      <c r="O166" s="36"/>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+      <c r="L167" s="36"/>
+      <c r="M167" s="36"/>
+      <c r="N167" s="36"/>
+      <c r="O167" s="36"/>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="A168" s="36"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="36"/>
+      <c r="M168" s="36"/>
+      <c r="N168" s="36"/>
+      <c r="O168" s="36"/>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="A169" s="36"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+      <c r="L169" s="36"/>
+      <c r="M169" s="36"/>
+      <c r="N169" s="36"/>
+      <c r="O169" s="36"/>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="A170" s="36"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+      <c r="L170" s="36"/>
+      <c r="M170" s="36"/>
+      <c r="N170" s="36"/>
+      <c r="O170" s="36"/>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="A171" s="36"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="36"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+      <c r="L171" s="36"/>
+      <c r="M171" s="36"/>
+      <c r="N171" s="36"/>
+      <c r="O171" s="36"/>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" s="36"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
+      <c r="L172" s="36"/>
+      <c r="M172" s="36"/>
+      <c r="N172" s="36"/>
+      <c r="O172" s="36"/>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="A173" s="36"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="36"/>
+      <c r="N173" s="36"/>
+      <c r="O173" s="36"/>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="A174" s="36"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
+      <c r="L174" s="36"/>
+      <c r="M174" s="36"/>
+      <c r="N174" s="36"/>
+      <c r="O174" s="36"/>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="A175" s="36"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
+      <c r="L175" s="36"/>
+      <c r="M175" s="36"/>
+      <c r="N175" s="36"/>
+      <c r="O175" s="36"/>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="A176" s="36"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+      <c r="L176" s="36"/>
+      <c r="M176" s="36"/>
+      <c r="N176" s="36"/>
+      <c r="O176" s="36"/>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="A177" s="36"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
+      <c r="L177" s="36"/>
+      <c r="M177" s="36"/>
+      <c r="N177" s="36"/>
+      <c r="O177" s="36"/>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="A178" s="36"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
+      <c r="L178" s="36"/>
+      <c r="M178" s="36"/>
+      <c r="N178" s="36"/>
+      <c r="O178" s="36"/>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
+      <c r="L179" s="36"/>
+      <c r="M179" s="36"/>
+      <c r="N179" s="36"/>
+      <c r="O179" s="36"/>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="A180" s="36"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+      <c r="L180" s="36"/>
+      <c r="M180" s="36"/>
+      <c r="N180" s="36"/>
+      <c r="O180" s="36"/>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="A181" s="36"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+      <c r="L181" s="36"/>
+      <c r="M181" s="36"/>
+      <c r="N181" s="36"/>
+      <c r="O181" s="36"/>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="A182" s="36"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+      <c r="L182" s="36"/>
+      <c r="M182" s="36"/>
+      <c r="N182" s="36"/>
+      <c r="O182" s="36"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+      <c r="L183" s="36"/>
+      <c r="M183" s="36"/>
+      <c r="N183" s="36"/>
+      <c r="O183" s="36"/>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="A184" s="36"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+      <c r="L184" s="36"/>
+      <c r="M184" s="36"/>
+      <c r="N184" s="36"/>
+      <c r="O184" s="36"/>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="A185" s="36"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+      <c r="L185" s="36"/>
+      <c r="M185" s="36"/>
+      <c r="N185" s="36"/>
+      <c r="O185" s="36"/>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
+      <c r="L186" s="36"/>
+      <c r="M186" s="36"/>
+      <c r="N186" s="36"/>
+      <c r="O186" s="36"/>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="A187" s="36"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="36"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
+      <c r="L187" s="36"/>
+      <c r="M187" s="36"/>
+      <c r="N187" s="36"/>
+      <c r="O187" s="36"/>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="A188" s="36"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+      <c r="L188" s="36"/>
+      <c r="M188" s="36"/>
+      <c r="N188" s="36"/>
+      <c r="O188" s="36"/>
+    </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="A189" s="36"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
+      <c r="L189" s="36"/>
+      <c r="M189" s="36"/>
+      <c r="N189" s="36"/>
+      <c r="O189" s="36"/>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="A190" s="36"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
+      <c r="L190" s="36"/>
+      <c r="M190" s="36"/>
+      <c r="N190" s="36"/>
+      <c r="O190" s="36"/>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="A191" s="36"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
+      <c r="L191" s="36"/>
+      <c r="M191" s="36"/>
+      <c r="N191" s="36"/>
+      <c r="O191" s="36"/>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="A192" s="36"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+      <c r="L192" s="36"/>
+      <c r="M192" s="36"/>
+      <c r="N192" s="36"/>
+      <c r="O192" s="36"/>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="A193" s="36"/>
+      <c r="B193" s="36"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+      <c r="L193" s="36"/>
+      <c r="M193" s="36"/>
+      <c r="N193" s="36"/>
+      <c r="O193" s="36"/>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="A194" s="36"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+      <c r="L194" s="36"/>
+      <c r="M194" s="36"/>
+      <c r="N194" s="36"/>
+      <c r="O194" s="36"/>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="A195" s="36"/>
+      <c r="B195" s="36"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
+      <c r="L195" s="36"/>
+      <c r="M195" s="36"/>
+      <c r="N195" s="36"/>
+      <c r="O195" s="36"/>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="A196" s="36"/>
+      <c r="B196" s="36"/>
+      <c r="C196" s="36"/>
+      <c r="D196" s="36"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
+      <c r="L196" s="36"/>
+      <c r="M196" s="36"/>
+      <c r="N196" s="36"/>
+      <c r="O196" s="36"/>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="A197" s="36"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+      <c r="L197" s="36"/>
+      <c r="M197" s="36"/>
+      <c r="N197" s="36"/>
+      <c r="O197" s="36"/>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="A198" s="36"/>
+      <c r="B198" s="36"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+      <c r="L198" s="36"/>
+      <c r="M198" s="36"/>
+      <c r="N198" s="36"/>
+      <c r="O198" s="36"/>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="A199" s="36"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="36"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
+      <c r="L199" s="36"/>
+      <c r="M199" s="36"/>
+      <c r="N199" s="36"/>
+      <c r="O199" s="36"/>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
+      <c r="E200" s="36"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="36"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
+      <c r="L200" s="36"/>
+      <c r="M200" s="36"/>
+      <c r="N200" s="36"/>
+      <c r="O200" s="36"/>
+    </row>
+    <row r="201" ht="15" customHeight="1">
+      <c r="A201" s="36"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="36"/>
+      <c r="E201" s="36"/>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
+      <c r="L201" s="36"/>
+      <c r="M201" s="36"/>
+      <c r="N201" s="36"/>
+      <c r="O201" s="36"/>
+    </row>
+    <row r="202" ht="15" customHeight="1">
+      <c r="A202" s="36"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="36"/>
+      <c r="D202" s="36"/>
+      <c r="E202" s="36"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
+      <c r="L202" s="36"/>
+      <c r="M202" s="36"/>
+      <c r="N202" s="36"/>
+      <c r="O202" s="36"/>
+    </row>
+    <row r="203" ht="15" customHeight="1">
+      <c r="A203" s="36"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="36"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="36"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
+      <c r="L203" s="36"/>
+      <c r="M203" s="36"/>
+      <c r="N203" s="36"/>
+      <c r="O203" s="36"/>
+    </row>
+    <row r="204" ht="15" customHeight="1">
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
+      <c r="L204" s="36"/>
+      <c r="M204" s="36"/>
+      <c r="N204" s="36"/>
+      <c r="O204" s="36"/>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
+      <c r="L205" s="36"/>
+      <c r="M205" s="36"/>
+      <c r="N205" s="36"/>
+      <c r="O205" s="36"/>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="36"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+      <c r="L206" s="36"/>
+      <c r="M206" s="36"/>
+      <c r="N206" s="36"/>
+      <c r="O206" s="36"/>
+    </row>
+    <row r="207" ht="15" customHeight="1">
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
+      <c r="L207" s="36"/>
+      <c r="M207" s="36"/>
+      <c r="N207" s="36"/>
+      <c r="O207" s="36"/>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="A208" s="36"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
+      <c r="E208" s="36"/>
+      <c r="F208" s="36"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+      <c r="L208" s="36"/>
+      <c r="M208" s="36"/>
+      <c r="N208" s="36"/>
+      <c r="O208" s="36"/>
+    </row>
+    <row r="209" ht="15" customHeight="1">
+      <c r="A209" s="36"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="36"/>
+      <c r="D209" s="36"/>
+      <c r="E209" s="36"/>
+      <c r="F209" s="36"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
+      <c r="L209" s="36"/>
+      <c r="M209" s="36"/>
+      <c r="N209" s="36"/>
+      <c r="O209" s="36"/>
+    </row>
+    <row r="210" ht="15" customHeight="1">
+      <c r="A210" s="36"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="36"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+      <c r="L210" s="36"/>
+      <c r="M210" s="36"/>
+      <c r="N210" s="36"/>
+      <c r="O210" s="36"/>
+    </row>
+    <row r="211" ht="15" customHeight="1">
+      <c r="A211" s="36"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="36"/>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="36"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+      <c r="L211" s="36"/>
+      <c r="M211" s="36"/>
+      <c r="N211" s="36"/>
+      <c r="O211" s="36"/>
+    </row>
+    <row r="212" ht="15" customHeight="1">
+      <c r="A212" s="36"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="36"/>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="36"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
+      <c r="L212" s="36"/>
+      <c r="M212" s="36"/>
+      <c r="N212" s="36"/>
+      <c r="O212" s="36"/>
+    </row>
+    <row r="213" ht="15" customHeight="1">
+      <c r="A213" s="36"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="36"/>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="36"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
+      <c r="L213" s="36"/>
+      <c r="M213" s="36"/>
+      <c r="N213" s="36"/>
+      <c r="O213" s="36"/>
+    </row>
+    <row r="214" ht="15" customHeight="1">
+      <c r="A214" s="36"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="36"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
+      <c r="L214" s="36"/>
+      <c r="M214" s="36"/>
+      <c r="N214" s="36"/>
+      <c r="O214" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:O37"/>

--- a/wwwroot/Reports/FORMATO_CAUSACION.XLSX
+++ b/wwwroot/Reports/FORMATO_CAUSACION.XLSX
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" autoCompressPictures="1" defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interedes\PROYECTOS\PMA\pmacore_api\wwwroot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10890" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10890" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion_Causion_Viaticos" sheetId="1" r:id="rId1"/>
@@ -46,2044 +51,1939 @@
     <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\0"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\a"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\c"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\g"><![CDATA[#REF!]]></definedName>
-    <definedName name="\i"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\l"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\p"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="\q"><![CDATA[#REF!]]></definedName>
-    <definedName name="\s"><![CDATA[#REF!]]></definedName>
-    <definedName name="_____________________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="____________________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="___________________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_________________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="________________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="______________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_____________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="____________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="___________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="__________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="________A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_______A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="______A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_____a1"><![CDATA['[2]Relación De Equipos'!$B$2:$I$16]]></definedName>
-    <definedName name="_____A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_____AAS1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="_____ABC1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="_____abc2" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="____a1"><![CDATA['[2]Relación De Equipos'!$B$2:$I$16]]></definedName>
-    <definedName name="____A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="___a1"><![CDATA['[2]Relación De Equipos'!$B$2:$I$16]]></definedName>
-    <definedName name="___A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="___AAS1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="___ABC1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="___abc2" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="__11_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="__12_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="__123Graph_A" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="__123Graph_B" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="__123Graph_C" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__123Graph_D" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__123Graph_X" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__16_B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="__19_4_0__123Grap" hidden="1"><![CDATA[[5]CRUDOS!#REF!]]></definedName>
-    <definedName name="__4___123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__5___123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__6___123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__7__123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__8__123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__9__123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="__a1"><![CDATA['[2]Relación De Equipos'!$B$2:$I$16]]></definedName>
-    <definedName name="__A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="__AAS1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="__ABC1" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="__abc2" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="_1___123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_10__123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_11_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_12_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_13B____123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_16_B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_16B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_17_B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_18_4____123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_19_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_2___123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_20_4____123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_21_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_24B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_28B____123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_29B_0__123Graph_XGráfico" hidden="1"><![CDATA[[5]CRUDOS!#REF!]]></definedName>
-    <definedName name="_3___123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_30B____123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_31B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_4___123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_4__123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_5___123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_5___123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_5__123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_6___123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_6___123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_6__123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_7___123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_7__123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_7_4_0__123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_8__123Graph_AGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_8__123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_8_B_0__123Graph_XGráfico" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_9__123Graph_BGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_9__123Graph_XGráfico_4A" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="_9_4____123Grap" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="_a1"><![CDATA['[2]Relación De Equipos'!$B$2:$I$16]]></definedName>
-    <definedName name="_A2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="_Dist_Bin" hidden="1"><![CDATA[[6]SABANA!#REF!]]></definedName>
-    <definedName name="_f" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_Fill" hidden="1"><![CDATA['[7]7422CW00'!#REF!]]></definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1"><![CDATA[Relacion_Causion_Viaticos!$A$8:$O$37]]></definedName>
-    <definedName name="_HJK1" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_Key1" hidden="1"><![CDATA['[8]Rte-Fte-97'!#REF!]]></definedName>
-    <definedName name="_Key2" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_Masa" hidden="1"><![CDATA['[9]Rte-Fte-97'!#REF!]]></definedName>
-    <definedName name="_Order1" hidden="1"><![CDATA[255]]></definedName>
-    <definedName name="_Order2" hidden="1"><![CDATA[1]]></definedName>
-    <definedName name="_OT1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT10"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT11"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT12"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT13"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT14"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT15"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT16"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT17"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT18"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT19"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT2"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT20"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT21"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT22"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT23"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT24"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT25"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT26"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT27"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT28"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT29"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT3"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT30"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT31"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT32"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT33"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT34"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT35"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT36"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT37"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT38"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT39"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT4"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT40"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT41"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT42"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT43"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT44"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT45"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT46"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT47"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT48"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT49"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT5"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT50"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT6"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT7"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT8"><![CDATA[#REF!]]></definedName>
-    <definedName name="_OT9"><![CDATA[#REF!]]></definedName>
-    <definedName name="_Parse_Out" hidden="1"><![CDATA['[7]7422CW00'!#REF!]]></definedName>
-    <definedName name="_PO1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO10"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO11"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO12"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO13"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO14"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO15"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO16"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO17"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO18"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO19"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO2"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO20"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO21"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO22"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO23"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO24"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO25"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO26"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO27"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO28"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO29"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO3"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO30"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO31"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO32"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO33"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO34"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO35"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO36"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO37"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO38"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO39"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO4"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO40"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO41"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO42"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO43"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO44"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO45"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO46"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO47"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO48"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO49"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO5"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO50"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO6"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO7"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO8"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PO9"><![CDATA[#REF!]]></definedName>
-    <definedName name="_PUE2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_pue3" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_PUE4" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_PUE5" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_PUE6" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_PUE7" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="_RB1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB10"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB11"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB12"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB13"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB14"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB15"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB16"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB17"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB18"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB19"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB2"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB20"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB21"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB22"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB23"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB24"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB25"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB26"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB27"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB28"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB29"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB3"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB30"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB31"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB32"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB33"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB34"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB35"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB36"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB37"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB38"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB39"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB4"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB40"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB41"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB42"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB43"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB44"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB45"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB46"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB47"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB48"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB49"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB5"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB50"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB6"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB7"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB8"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RB9"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE10"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE11"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE12"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE13"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE14"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE15"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE16"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE17"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE18"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE19"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE2"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE20"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE21"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE22"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE23"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE24"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE25"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE26"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE27"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE28"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE29"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE3"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE30"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE31"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE32"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE33"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE34"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE35"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE36"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE37"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE38"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE39"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE4"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE40"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE41"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE42"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE43"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE44"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE45"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE46"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE47"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE48"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE49"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE5"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE50"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE6"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE7"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE8"><![CDATA[#REF!]]></definedName>
-    <definedName name="_RE9"><![CDATA[#REF!]]></definedName>
-    <definedName name="_Regression_Out" hidden="1"><![CDATA[[6]SABANA!#REF!]]></definedName>
-    <definedName name="_Regression_X" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_REGRESSION_XNJA" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_Regression_Y" hidden="1"><![CDATA['[10]140 kbbld Cus,BCF22'!$C$39:$F$40]]></definedName>
-    <definedName name="_Sort" hidden="1"><![CDATA['[9]Rte-Fte-97'!#REF!]]></definedName>
-    <definedName name="_SortNJA" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_VAR1"><![CDATA[#REF!]]></definedName>
-    <definedName name="_VI10"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI11"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI12"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI13"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI14"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI15"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI16"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI17"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI18"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI19"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI2"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI20"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI21"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI22"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI23"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI24"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI25"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI26"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI27"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI28"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI29"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI3"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI30"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI31"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI32"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI33"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI34"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI35"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI36"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI37"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI38"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI39"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI4"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI40"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI41"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI42"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI43"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI44"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI45"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI46"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI47"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI48"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI49"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI5"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI50"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI6"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI7"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI8"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="_VI9"><![CDATA[[11]relviat!#REF!]]></definedName>
-    <definedName name="A"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="A_impresión_IM"><![CDATA[#REF!]]></definedName>
-    <definedName name="a6d" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}]]></definedName>
-    <definedName name="AA" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="aaa"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="AAAA"><![CDATA[#REF!]]></definedName>
-    <definedName name="AAAAA"><![CDATA[#REF!]]></definedName>
-    <definedName name="aaaaaaaa" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="AAS" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="ab" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="abc" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="ABCD" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="ABCDE" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="ABSBSBSBSBSBSBSBS"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="AccessDatabase" hidden="1"><![CDATA["C:\EXCEL\FILESXLS\TELEX\LIBRO99.mdb"]]></definedName>
-    <definedName name="ACT"><![CDATA[#REF!]]></definedName>
-    <definedName name="Actividades"><![CDATA[#REF!]]></definedName>
-    <definedName name="actividadesmmto"><![CDATA[[12]TARIFAS!$D$14:$D$171]]></definedName>
-    <definedName name="actividadesmtto"><![CDATA[[12]TARIFAS!$D$14:$D$171]]></definedName>
-    <definedName name="Administración"><![CDATA[#REF!]]></definedName>
-    <definedName name="Ajusteinf" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="AJUSTPTO" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="AREA"><![CDATA[#REF!]]></definedName>
-    <definedName name="_xlnm.Print_Area"><![CDATA[#REF!]]></definedName>
-    <definedName name="ARP"><![CDATA[#REF!]]></definedName>
-    <definedName name="AWD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="B"><![CDATA[#REF!]]></definedName>
-    <definedName name="BASE"><![CDATA[[8]Formato!#REF!]]></definedName>
-    <definedName name="basecontrato"><![CDATA[#REF!]]></definedName>
-    <definedName name="basenombres"><![CDATA[OFFSET([13]PersActi!$A$1,0,0,COUNTA([13]PersActi!$A:$A),9)]]></definedName>
-    <definedName name="Bases"><![CDATA[[14]Datos!$L$2:$L$16]]></definedName>
-    <definedName name="BB" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="BC"><![CDATA[#REF!]]></definedName>
-    <definedName name="BDD"><![CDATA[#REF!]]></definedName>
-    <definedName name="bfdgh" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="Button_1"><![CDATA["LIBRO99_Sheet6_List"]]></definedName>
-    <definedName name="CA" hidden="1"><![CDATA[[15]DATOS!#REF!]]></definedName>
-    <definedName name="CABCELAR" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="CANT111"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT112"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT113"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT114"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT115"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT116"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT117"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT118"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT119"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT120"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT121"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT122"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT123"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT124"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT125"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT126"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT127"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT128"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT129"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT130"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT131"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT132"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT133"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT134"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT135"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT136"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT137"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT138"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT139"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT140"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT141"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT142"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT143"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT144"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT145"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT146"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT147"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT148"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT149"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT150"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT151"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT152"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT153"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT154"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT155"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT156"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT157"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT158"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT159"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT160"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT161"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT162"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT163"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT164"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT165"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT166"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT167"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT168"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT169"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT170"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT171"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT172"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT173"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT174"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT175"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT176"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT177"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT178"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT179"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT180"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT181"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT182"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT183"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT184"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT185"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT186"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT187"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT188"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT189"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT190"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT191"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT192"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT193"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT194"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT195"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT196"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT197"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT198"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT199"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT200"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT201"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT202"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT203"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT204"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT205"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CANT206"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CARNET"><![CDATA[#REF!]]></definedName>
-    <definedName name="CD"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="CESAR" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="CHACA" hidden="1"><![CDATA[[15]DATOS!#REF!]]></definedName>
-    <definedName name="CIUDADES"><![CDATA[#REF!]]></definedName>
-    <definedName name="CIUDADES2"><![CDATA[#REF!]]></definedName>
-    <definedName name="CLASE_DE_MANTTO"><![CDATA[#REF!]]></definedName>
-    <definedName name="COL"><![CDATA[#REF!]]></definedName>
-    <definedName name="COLMENA"><![CDATA[#REF!]]></definedName>
-    <definedName name="COMFABOY"><![CDATA[#REF!]]></definedName>
-    <definedName name="COMPMEDFAM"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="consum" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="CONTABLE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="CONTABLES" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="CONVENCION"><![CDATA[#REF!]]></definedName>
-    <definedName name="CONVENCIONAL"><![CDATA[#REF!]]></definedName>
-    <definedName name="COPI" hidden="1"><![CDATA['[9]Rte-Fte-97'!#REF!]]></definedName>
-    <definedName name="COPIAR"><![CDATA[[8]Formato!#REF!]]></definedName>
-    <definedName name="cost04" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="COSTCONTAB" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="costivos" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="costoperativos" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="costos" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="costos04" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="CRUDOS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="CUADRILLA"><![CDATA[#REF!]]></definedName>
-    <definedName name="CUADRILLAS"><![CDATA[#REF!]]></definedName>
-    <definedName name="cusum1" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="D"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DA"><![CDATA[#REF!]]></definedName>
-    <definedName name="DATOS"><![CDATA[1]]></definedName>
-    <definedName name="DD"><![CDATA[#REF!]]></definedName>
-    <definedName name="ddd"><![CDATA[#REF!]]></definedName>
-    <definedName name="DDDD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="ddddd"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ddddddd" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DES" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DESC111"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC112"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC113"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC114"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC115"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC116"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC117"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC118"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC119"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC120"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC121"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC122"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC123"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC124"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC125"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC126"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC127"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC128"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC129"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC130"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC131"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC132"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC133"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC134"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC135"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC136"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC137"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC138"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC139"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC140"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC141"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC142"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC143"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC144"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC145"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC146"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC147"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC148"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC149"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC150"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC151"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC152"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC153"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC154"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC155"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC156"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC157"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC158"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC159"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC160"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC161"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC162"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC163"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC164"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC165"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC166"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC167"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC168"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC169"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC170"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC171"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC172"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC173"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC174"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC175"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC176"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC177"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC178"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC179"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC180"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC181"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC182"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC183"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC184"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC185"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC186"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC187"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC188"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC189"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC190"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC191"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC192"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC193"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC194"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC195"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC196"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC197"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC198"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC199"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC200"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC201"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC202"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC203"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC204"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC205"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DESC206"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="DF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DFA" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="dfd" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DFDF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DFDFD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DFDFDFDFD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DFFDF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="DFGHH"><![CDATA[#REF!]]></definedName>
-    <definedName name="dfr" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="dgdgdhdh" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="direccion" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="DIRECTO111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="DIRECTO206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="dos"><![CDATA[#REF!]]></definedName>
-    <definedName name="DOT"><![CDATA[#REF!]]></definedName>
-    <definedName name="DOTACIO"><![CDATA[#REF!]]></definedName>
-    <definedName name="DOTACION"><![CDATA[#REF!]]></definedName>
-    <definedName name="DSD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DSDS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DSDSD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DSDSDS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DSDSDSD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DSFA" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="DTBASICOS"><![CDATA[#REF!]]></definedName>
-    <definedName name="DURACION"><![CDATA[#REF!]]></definedName>
-    <definedName name="dyu5yrt" hidden="1"><![CDATA[[5]CRUDOS!#REF!]]></definedName>
-    <definedName name="eb"><![CDATA[[12]TARIFAS!$D$257:$D$304]]></definedName>
-    <definedName name="EDFF"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="EE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="eee" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}]]></definedName>
-    <definedName name="eefaseIINCDIES" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}]]></definedName>
-    <definedName name="EFFASEI_INC_DIESEL2" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}]]></definedName>
-    <definedName name="empleadosnuevos"><![CDATA[#REF!]]></definedName>
-    <definedName name="Empresa"><![CDATA['[17]Inf-Empresa'!$AA$11]]></definedName>
-    <definedName name="eo"><![CDATA[[12]TARIFAS!$D$310:$D$545]]></definedName>
-    <definedName name="EQUIP111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="EQUIP206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="Equipos_Herramientas"><![CDATA['[18]Data Base-R'!$I$67:$I$116]]></definedName>
-    <definedName name="equiposyherramientas"><![CDATA[#REF!]]></definedName>
-    <definedName name="er" hidden="1"><![CDATA[[5]CRUDOS!#REF!]]></definedName>
-    <definedName name="ERE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="ererrreer" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="escalafonconvencional"><![CDATA[#REF!]]></definedName>
-    <definedName name="ESP."><![CDATA[#REF!]]></definedName>
-    <definedName name="Especialista" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="ETP"><![CDATA[#REF!]]></definedName>
-    <definedName name="EWE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="EWERE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="EWEWE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="EWEWEWE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="eyeyey" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="FA" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="FD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FDFD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="fdfdf" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FDFDFD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FDFDFDFD" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FDFDFDFDFDFDFDFDFDFDF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FDSFSDS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FEEE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="FEST"><![CDATA[#REF!]]></definedName>
-    <definedName name="FF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="FFFF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="fffffff" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="fffggg" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="fghj" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="fhg" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="FILA"><![CDATA[#REF!]]></definedName>
-    <definedName name="fORMA9698" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="FORMAUNIT" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="gc" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="GER"><![CDATA[#REF!]]></definedName>
-    <definedName name="GERENCIA"><![CDATA[#REF!]]></definedName>
-    <definedName name="Gerente"><![CDATA['[17]Inf-Empresa'!$AA$14]]></definedName>
-    <definedName name="gerger" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="GF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="gggggggggggggggg"><![CDATA[[19]Informacion!$H$4:$H$21]]></definedName>
-    <definedName name="GR10F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR10I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR11F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR11I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR12F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR12I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR1F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR1I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR2F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR2I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR3F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR3I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR4F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR4I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR5F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR5I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR6F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR6I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR7F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR7I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR8F"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR8I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GR9F"><![CDATA[#REF!]]></definedName>
-    <definedName name="GR9I"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="GRCHIS0599" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="GUS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="GUSTAVO" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="h56h" hidden="1"><![CDATA[{0,0,0,0;0,0,0,0}]]></definedName>
-    <definedName name="HD"><![CDATA[#REF!]]></definedName>
-    <definedName name="HED"><![CDATA[#REF!]]></definedName>
-    <definedName name="HEDF"><![CDATA[#REF!]]></definedName>
-    <definedName name="HEN"><![CDATA[#REF!]]></definedName>
-    <definedName name="HEND"><![CDATA[#REF!]]></definedName>
-    <definedName name="HENF"><![CDATA[#REF!]]></definedName>
-    <definedName name="Herramienta" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="HEXTRAS"><![CDATA[#REF!]]></definedName>
-    <definedName name="hghghghghgh" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="hhghhghghhgg" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="hhhhhhhhhh" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="hhhhhhhhhhhhhhhh"><![CDATA[[19]Informacion!$H$4:$H$21]]></definedName>
-    <definedName name="HIK" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="HISTORICO" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="hjk" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="HKJ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="HO"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="HOD"><![CDATA[#REF!]]></definedName>
-    <definedName name="HODF"><![CDATA[#REF!]]></definedName>
-    <definedName name="HOJAVIDA"><![CDATA[#REF!]]></definedName>
-    <definedName name="HON"><![CDATA[#REF!]]></definedName>
-    <definedName name="HONF"><![CDATA[#REF!]]></definedName>
-    <definedName name="HSIT" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="HT"><![CDATA[#REF!]]></definedName>
-    <definedName name="HTF"><![CDATA[#REF!]]></definedName>
-    <definedName name="HTML_CodePage" hidden="1"><![CDATA[1252]]></definedName>
-    <definedName name="HTML_Control" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="HTML_Description" hidden="1"><![CDATA[""]]></definedName>
-    <definedName name="HTML_Email" hidden="1"><![CDATA[""]]></definedName>
-    <definedName name="HTML_Header" hidden="1"><![CDATA["Sheet2"]]></definedName>
-    <definedName name="HTML_LastUpdate" hidden="1"><![CDATA["08/30/01"]]></definedName>
-    <definedName name="HTML_LineAfter" hidden="1"><![CDATA[FALSE]]></definedName>
-    <definedName name="HTML_LineBefore" hidden="1"><![CDATA[TRUE]]></definedName>
-    <definedName name="HTML_Name" hidden="1"><![CDATA["Informacion y Computacion"]]></definedName>
-    <definedName name="HTML_OBDlg2" hidden="1"><![CDATA[TRUE]]></definedName>
-    <definedName name="HTML_OBDlg4" hidden="1"><![CDATA[TRUE]]></definedName>
-    <definedName name="HTML_OS" hidden="1"><![CDATA[0]]></definedName>
-    <definedName name="HTML_PathFile" hidden="1"><![CDATA["N:\ACTIVIDADES DISTRITO HUILA\MANTENIMIENTO INDUSTRIAL\2PLANEACION\MyHTML.htm"]]></definedName>
-    <definedName name="HTML_Title" hidden="1"><![CDATA["PLAN PERDIDAS 2001 ultimo"]]></definedName>
-    <definedName name="HUMANAVIVIR"><![CDATA[#REF!]]></definedName>
-    <definedName name="ICSS"><![CDATA[#REF!]]></definedName>
-    <definedName name="IMPR"><![CDATA[#REF!]]></definedName>
-    <definedName name="Imprevistos"><![CDATA[#REF!]]></definedName>
-    <definedName name="IMPRIMIRMATRIZ"><![CDATA[#REF!]]></definedName>
-    <definedName name="INDPYG9698" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="ING" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}]]></definedName>
-    <definedName name="INGREHIS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="Ingresos" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="Ingresos06" hidden="1"><![CDATA[{"'Sheet2'!$A$3:$B$17"}]]></definedName>
-    <definedName name="INGRESOSRETIROS"><![CDATA[#REF!]]></definedName>
-    <definedName name="INICIA"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="IOPIOU" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="ISSAFP"><![CDATA[#REF!]]></definedName>
-    <definedName name="ISSEPS"><![CDATA[#REF!]]></definedName>
-    <definedName name="ITEM"><![CDATA[#REF!]]></definedName>
-    <definedName name="ITEM111"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM112"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM113"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM114"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM115"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM116"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM117"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM118"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM119"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM120"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM121"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM122"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM123"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM124"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM125"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM126"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM127"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM128"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM129"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM130"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM131"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM132"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM133"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM134"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM135"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM136"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM137"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM138"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM139"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM140"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM141"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM142"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM143"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM144"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM145"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM146"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM147"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM148"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM149"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM150"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM151"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM152"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM153"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM154"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM155"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM156"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM157"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM158"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM159"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM160"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM161"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM162"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM163"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM164"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM165"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM166"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM167"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM168"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM169"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM170"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM171"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM172"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM173"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM174"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM175"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM176"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM177"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM178"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM179"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM180"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM181"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM182"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM183"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM184"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM185"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM186"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM187"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM188"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM189"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM190"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM191"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM192"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM193"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM194"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM195"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM196"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM197"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM198"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM199"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM200"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM201"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM202"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM203"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM204"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM205"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="ITEM206"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="IV"><![CDATA[#REF!]]></definedName>
-    <definedName name="jhj" hidden="1"><![CDATA['[8]Rte-Fte-97'!#REF!]]></definedName>
-    <definedName name="jjjjjjjjjjjjjaaaaaaaaaaaaa"><![CDATA[[19]Informacion!$H$4:$H$21]]></definedName>
-    <definedName name="JOHN" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="jp" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="kljh" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="LEGALDIRECCION"><![CDATA[#REF!]]></definedName>
-    <definedName name="LEGALIZACIONES"><![CDATA[#REF!,#REF!]]></definedName>
-    <definedName name="Lista_Nombres"><![CDATA[[20]Listas!$A$1:$I$191]]></definedName>
-    <definedName name="M.AC"><![CDATA[#REF!]]></definedName>
-    <definedName name="MAESTRO"><![CDATA[#REF!]]></definedName>
-    <definedName name="Mano_de_Obra"><![CDATA['[18]Data Base-R'!$I$176:$I$225]]></definedName>
-    <definedName name="MANO111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MANO206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="manodeobra"><![CDATA[#REF!]]></definedName>
-    <definedName name="MAQUINARIAPESADA"><![CDATA[#REF!]]></definedName>
-    <definedName name="marina"><![CDATA[#REF!]]></definedName>
-    <definedName name="MATE111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="MATE206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="materiales"><![CDATA[#REF!]]></definedName>
-    <definedName name="MEDFAM"><![CDATA[#REF!]]></definedName>
-    <definedName name="mem" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="memorias" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="MEMPYGH" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="MEMPYGHIS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="MENU"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="MES"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="MLKJ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="mODI" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}]]></definedName>
-    <definedName name="mODIF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}]]></definedName>
-    <definedName name="Nit"><![CDATA['[17]Inf-Empresa'!$AA$12]]></definedName>
-    <definedName name="noemi" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="NOMBRE"><![CDATA[#REF!]]></definedName>
-    <definedName name="Nombres"><![CDATA[[21]Listas!$A$2:$A$331]]></definedName>
-    <definedName name="Norte"><![CDATA[#REF!]]></definedName>
-    <definedName name="Nueva" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"a4D";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"A6D";#N/A,#N/A,FALSE,"INV"}]]></definedName>
-    <definedName name="NvsASD"><![CDATA["V1999-07-31"]]></definedName>
-    <definedName name="NvsAutoDrillOk"><![CDATA["VY"]]></definedName>
-    <definedName name="NvsElapsedTime"><![CDATA[0.0000649305584374815]]></definedName>
-    <definedName name="NvsEndTime"><![CDATA[36404.3128642361]]></definedName>
-    <definedName name="NvsInstSpec"><![CDATA["%"]]></definedName>
-    <definedName name="NvsLayoutType"><![CDATA["M3"]]></definedName>
-    <definedName name="NvsNplSpec"><![CDATA["%,X,RZF..,CZF.."]]></definedName>
-    <definedName name="NvsPanelEffdt"><![CDATA["V1999-01-01"]]></definedName>
-    <definedName name="NvsPanelSetid"><![CDATA["VHOCOL"]]></definedName>
-    <definedName name="NvsReqBU"><![CDATA["VHOCOL"]]></definedName>
-    <definedName name="NvsReqBUOnly"><![CDATA["VY"]]></definedName>
-    <definedName name="NvsTransLed"><![CDATA["VN"]]></definedName>
-    <definedName name="NvsTreeASD"><![CDATA["V1999-07-31"]]></definedName>
-    <definedName name="NvsValTbl.ANALYSIS_TYPE"><![CDATA["PROJ_ANTYPE_TBL"]]></definedName>
-    <definedName name="NvsValTbl.PRODUCT"><![CDATA["PRODUCT_TBL"]]></definedName>
-    <definedName name="ññ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="o"><![CDATA['[22]11 AL 25 ABR-01'!$M$7,'[22]11 AL 25 ABR-01'!$M$1:$M$65536]]></definedName>
-    <definedName name="º"><![CDATA['[23] '!$B$3:$B$93]]></definedName>
-    <definedName name="oficial" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="OFICIO"><![CDATA['[24] '!$B$3:$B$93]]></definedName>
-    <definedName name="OO"><![CDATA['[25]Memoria Rte.Fte'!$A$9:$L$29]]></definedName>
-    <definedName name="ORD"><![CDATA[#REF!]]></definedName>
-    <definedName name="OTS"><![CDATA[[26]Hoja1!$K$3:$K$61]]></definedName>
-    <definedName name="PAZYSALVO"><![CDATA[#REF!]]></definedName>
-    <definedName name="pcb"><![CDATA[[12]TARIFAS!$D$179:$D$189]]></definedName>
-    <definedName name="pco"><![CDATA[[12]TARIFAS!$D$195:$D$205]]></definedName>
-    <definedName name="PERSONALLEGAL"><![CDATA[#REF!]]></definedName>
-    <definedName name="Planta_Oleod"><![CDATA[[14]Datos!$C$2:$C$10]]></definedName>
-    <definedName name="plba"><![CDATA[[12]TARIFAS!$D$221:$D$225]]></definedName>
-    <definedName name="plbs"><![CDATA[[12]TARIFAS!$D$211:$D$215]]></definedName>
-    <definedName name="plva"><![CDATA[[12]TARIFAS!$D$242:$D$249]]></definedName>
-    <definedName name="plvs"><![CDATA[[12]TARIFAS!$D$231:$D$236]]></definedName>
-    <definedName name="PM"><![CDATA[#REF!]]></definedName>
-    <definedName name="POZO" hidden="1"><![CDATA["M:\Datos\PRESUPUESTO Vs GASTOS\DB EJECUCION  PvsG-0SM.mdb"]]></definedName>
-    <definedName name="PPT" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PPTACUM" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="PPTACUMG" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="PRECIO111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRECIO206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="PRIMERO"><![CDATA[#REF!]]></definedName>
-    <definedName name="PROTECCION"><![CDATA["prestaciones'!$D$23"]]></definedName>
-    <definedName name="PSWIsControlVisible_0_0" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_1" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_10" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_11" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_12" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_13" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_14" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_15" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_16" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_17" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_18" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_19" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_2" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_20" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_21" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_22" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_23" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_24" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_25" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_26" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_27" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_28" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_29" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_3" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_30" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_31" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_32" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_33" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_34" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_35" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_36" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_37" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_38" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_39" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_4" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_40" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_41" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_42" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_43" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_44" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_45" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_46" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_47" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_48" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_49" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_5" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_50" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_51" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_52" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_53" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_54" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_55" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_56" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_57" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_58" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_59" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_6" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_7" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_8" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWIsControlVisible_0_9" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_20" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_21" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_22" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_23" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_24" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_25" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_26" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_27" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_28" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_29" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_30" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_31" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_32" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_33" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_34" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_35" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_36" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_37" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_38" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWList_0_39" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSavingCell_0" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSeries_0_0_Labels" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSeries_0_0_Values" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSeries_0_1_Labels" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSeries_0_1_Values" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="PSWSeries_0_2_Values" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="pue" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="pyg" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGAJ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="PYGCON" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGCONTABLE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGCONTBLCRUDO" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGCONTPTO" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGGRCAJ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGHGRC" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="PYGRC" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="QE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="qqqqqqqq" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="QR" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="QT" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="QU" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="Quemar"><![CDATA[[27]Reporte!$E$8:$AB$17,[27]Reporte!#REF!,[27]Reporte!$E$49:$AB$52,[27]Reporte!$E$59:$AB$59,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!$E$80:$AB$83,[27]Reporte!$E$91:$AB$94,[27]Reporte!$E$96:$AB$98]]></definedName>
-    <definedName name="Quemar_2"><![CDATA[[27]Reporte!$AR$8:$BC$17,[27]Reporte!#REF!,[27]Reporte!$AR$49:$BC$52,[27]Reporte!$AR$59:$BC$59,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!$AR$80:$BC$83,[27]Reporte!$AR$91:$BC$94,[27]Reporte!$AR$96:$BC$98]]></definedName>
-    <definedName name="QW" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="RE" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="REGISTROF14"><![CDATA[#REF!]]></definedName>
-    <definedName name="REND111"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND112"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND113"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND114"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND115"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND116"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND117"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND118"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND119"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND120"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND121"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND122"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND123"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND124"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND125"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND126"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND127"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND128"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND129"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND130"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND131"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND132"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND133"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND134"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND135"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND136"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND137"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND138"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND139"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND140"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND141"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND142"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND143"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND144"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND145"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND146"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND147"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND148"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND149"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND150"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND151"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND152"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND153"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND154"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND155"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND156"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND157"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND158"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND159"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND160"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND161"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND162"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND163"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND164"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND165"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND166"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND167"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND168"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND169"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND170"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND171"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND172"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND173"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND174"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND175"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND176"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND177"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND178"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND179"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND180"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND181"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND182"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND183"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND184"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND185"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND186"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND187"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND188"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND189"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND190"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND191"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND192"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND193"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND194"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND195"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND196"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND197"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND198"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND199"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND200"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND201"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND202"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND203"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND204"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND205"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REND206"><![CDATA[[16]APU!#REF!]]></definedName>
-    <definedName name="REQUISICION"><![CDATA[#REF!]]></definedName>
-    <definedName name="rerererere" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="RESUME"><![CDATA[#REF!]]></definedName>
-    <definedName name="RESUMEN"><![CDATA[#REF!]]></definedName>
-    <definedName name="RETR" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="Rót_Listas_Pers"><![CDATA[[20]Listas!$A$1:$I$1]]></definedName>
-    <definedName name="Rótulos_Listas"><![CDATA[[28]Listas!$A$1:$I$1]]></definedName>
-    <definedName name="RR" hidden="1"><![CDATA[[29]DATOS!#REF!]]></definedName>
-    <definedName name="S" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="SAAA" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="SALARIOMINIMO"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="sdg" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="sdgsg" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="SDS" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="SEE"><![CDATA[#REF!]]></definedName>
-    <definedName name="SEG"><![CDATA[#REF!]]></definedName>
-    <definedName name="SEGISS"><![CDATA[#REF!]]></definedName>
-    <definedName name="SELECCIONEPSAFP"><![CDATA[#REF!]]></definedName>
-    <definedName name="sgsg" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="sgsgs" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="shshsh" hidden="1"><![CDATA[[3]DATOS!#REF!]]></definedName>
-    <definedName name="SINMEDFAM"><![CDATA[#REF!]]></definedName>
-    <definedName name="SOLICITUDLIQUIDACION"><![CDATA[#REF!]]></definedName>
-    <definedName name="SQC" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}]]></definedName>
-    <definedName name="SQC." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}]]></definedName>
-    <definedName name="SS"><![CDATA[#REF!]]></definedName>
-    <definedName name="SSA"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="sss"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="ssss"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="SSSSSSSSSSSSSSSS"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="SUBSALIMENT"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="SUBSIHABITACION"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="SUBSITRANSP"><![CDATA[#REF!]]></definedName>
-    <definedName name="SUBTRANS"><![CDATA[#REF!]]></definedName>
-    <definedName name="T" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="TABLA"><![CDATA['[30]Rte-Fte-99'!#REF!]]></definedName>
-    <definedName name="TariCiud"><![CDATA[[31]TariCiud!$A$5:$A$24]]></definedName>
-    <definedName name="TARIFAS"><![CDATA[[32]RESUMEN!$A$12:$F$526]]></definedName>
-    <definedName name="Tarifas_2011"><![CDATA[[21]Tarifas2011!$A$3:$D$175]]></definedName>
-    <definedName name="TBANCOS"><![CDATA[[30]BANCOS!$A$4:$C$50]]></definedName>
-    <definedName name="TCARGOS"><![CDATA[[30]CARGOS!$A$4:$C$260]]></definedName>
-    <definedName name="Telefono"><![CDATA['[17]Inf-Empresa'!$AA$16]]></definedName>
-    <definedName name="TEPS"><![CDATA[[30]EPS!$A$4:$B$50]]></definedName>
-    <definedName name="TIPO_DE_MANTTO"><![CDATA[#REF!]]></definedName>
-    <definedName name="Tipo_Proced"><![CDATA[[33]Datos!$B$2:$B$9]]></definedName>
-    <definedName name="TITLE"><![CDATA[#REF!]]></definedName>
-    <definedName name="TODO"><![CDATA[#REF!]]></definedName>
-    <definedName name="TOTA"><![CDATA[#REF!]]></definedName>
-    <definedName name="totaleb"><![CDATA[#REF!]]></definedName>
-    <definedName name="totaleo"><![CDATA[#REF!]]></definedName>
-    <definedName name="totalpb"><![CDATA[#REF!]]></definedName>
-    <definedName name="totalpbas"><![CDATA[#REF!]]></definedName>
-    <definedName name="totalpo"><![CDATA[#REF!]]></definedName>
-    <definedName name="totalviatic"><![CDATA[#REF!]]></definedName>
-    <definedName name="TotCa"><![CDATA['[17]Listado de Entrega'!$J$20]]></definedName>
-    <definedName name="TotJe"><![CDATA['[17]Listado de Entrega'!$K$20]]></definedName>
-    <definedName name="TotOt"><![CDATA['[17]Listado de Entrega'!$L$20]]></definedName>
-    <definedName name="TotPa"><![CDATA['[17]Listado de Entrega'!$I$20]]></definedName>
-    <definedName name="TPENSIONES"><![CDATA[[30]PENSIONES!$A$4:$B$50]]></definedName>
-    <definedName name="TR" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="transporte"><![CDATA[#REF!]]></definedName>
-    <definedName name="TRIM"><![CDATA['[17]Indicador DF'!$H$7]]></definedName>
-    <definedName name="TYTY" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="UNIDAD111"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD112"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD113"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD114"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD115"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD116"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD117"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD118"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD119"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD120"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD121"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD122"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD123"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD124"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD125"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD126"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD127"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD128"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD129"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD130"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD131"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD132"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD133"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD134"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD135"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD136"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD137"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD138"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD139"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD140"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD141"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD142"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD143"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD144"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD145"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD146"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD147"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD148"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD149"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD150"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD151"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD152"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD153"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD154"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD155"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD156"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD157"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD158"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD159"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD160"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD161"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD162"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD163"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD164"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD165"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD166"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD167"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD168"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD169"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD170"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD171"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD172"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD173"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD174"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD175"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD176"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD177"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD178"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD179"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD180"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD181"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD182"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD183"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD184"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD185"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD186"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD187"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD188"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD189"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD190"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD191"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD192"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD193"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD194"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD195"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD196"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD197"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD198"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD199"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD200"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD201"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD202"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD203"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD204"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD205"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="UNIDAD206"><![CDATA[[16]ITEMS!#REF!]]></definedName>
-    <definedName name="Utilidad"><![CDATA[#REF!]]></definedName>
-    <definedName name="UYYUYU" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="VEHICULOS"><![CDATA[#REF!]]></definedName>
-    <definedName name="VHGF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="VIATICOS"><![CDATA['[1]SALARIO LEGAL'!#REF!]]></definedName>
-    <definedName name="VOY"><![CDATA[#REF!]]></definedName>
-    <definedName name="vvvvvv" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="W"><![CDATA[#REF!]]></definedName>
-    <definedName name="wacc" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="WQ" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="WQW" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="wrn.ANEXO1." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Contables CIB A 12 1994";#N/A,#N/A,FALSE,"Cuadre Contab. y C. OP"}]]></definedName>
-    <definedName name="wrn.anexo5." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}]]></definedName>
-    <definedName name="wrn.anexo6." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="wrn.CAR." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"a4D";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"A6D";#N/A,#N/A,FALSE,"INV"}]]></definedName>
-    <definedName name="wrn.CIB." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"A1";#N/A,#N/A,FALSE,"A2";#N/A,#N/A,FALSE,"A3";#N/A,#N/A,FALSE,"A4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5A";#N/A,#N/A,FALSE,"A5B";#N/A,#N/A,FALSE,"F1F2";#N/A,#N/A,FALSE,"MP";#N/A,#N/A,FALSE,"MP A PCTOS";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"REND";"CRUDOS",#N/A,FALSE,"INVENTARIO";"PRODUCTOS",#N/A,FALSE,"INVENTARIO"}]]></definedName>
-    <definedName name="wrn.civil._.works." hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="wrn.FORMATOS." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Formato No.2 ";#N/A,#N/A,FALSE,"Formato No.3A";#N/A,#N/A,FALSE,"Formato No. 3B";#N/A,#N/A,FALSE,"Formato No. 3C";#N/A,#N/A,FALSE,"Formato No. 4A";#N/A,#N/A,FALSE,"Formato No. 4B";#N/A,#N/A,FALSE,"Formato No. 4C (1)";#N/A,#N/A,FALSE,"Formato No. 4C (2)";#N/A,#N/A,FALSE,"Formato No. 4D";#N/A,#N/A,FALSE,"Formato No. 7 ";#N/A,#N/A,FALSE,"Formato No. 8";#N/A,#N/A,FALSE,"Formato No. 9";#N/A,#N/A,FALSE,"Formato No. 10";#N/A,#N/A,FALSE,"Formato No. 11";#N/A,#N/A,FALSE,"Formato No. 12";#N/A,#N/A,FALSE,"Formato No. 13";#N/A,#N/A,FALSE,"Formato No. 14";#N/A,#N/A,FALSE,"Formato No. 15 ";#N/A,#N/A,FALSE,"Formato No. 16";#N/A,#N/A,FALSE,"Formato No. 17";#N/A,#N/A,FALSE,"Formato No. 18";#N/A,#N/A,FALSE,"Formato No. 19"}]]></definedName>
-    <definedName name="wrn.GERENCIA." hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
-    <definedName name="wrn.INF_DIARIO." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="wrn.INFOCIB." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="wrn.Julio._.052000." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}]]></definedName>
-    <definedName name="wrn.PRODUCCION._.SOACHA." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="wrn.PRU_1." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="wrn.Resumen." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}]]></definedName>
-    <definedName name="wrn.SOACHA." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"SOACHA"}]]></definedName>
-    <definedName name="wrn.SUP._.1." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="wrn.SUPER." hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="wwn.infocib" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="X"><![CDATA[#REF!]]></definedName>
-    <definedName name="xbxb" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="XSW" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"1842CWN0"}]]></definedName>
-    <definedName name="xvxv" hidden="1"><![CDATA[[4]DATOS!#REF!]]></definedName>
-    <definedName name="xx" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="xxx" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="XXXX" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="xxxxx" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}]]></definedName>
-    <definedName name="XXXXXXXX" hidden="1"><![CDATA[[34]DATOS!#REF!]]></definedName>
-    <definedName name="XXXXXXXXXXXXXXXX" hidden="1"><![CDATA[[34]DATOS!#REF!]]></definedName>
-    <definedName name="XZS" hidden="1"><![CDATA[#REF!]]></definedName>
-    <definedName name="YUTREFSF" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"PERSONAL"}]]></definedName>
-    <definedName name="yyyyy" hidden="1"><![CDATA[{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}]]></definedName>
-    <definedName name="ZAQ" hidden="1"><![CDATA[{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}]]></definedName>
+    <definedName name="\0">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\a">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\c">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\g">#REF!</definedName>
+    <definedName name="\i">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\l">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\p">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="\q">#REF!</definedName>
+    <definedName name="\s">#REF!</definedName>
+    <definedName name="_____________________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="____________________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="___________________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_________________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="________________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="______________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_____________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="____________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="___________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="__________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="________A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_______A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="______A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_____a1">'[2]Relación De Equipos'!$B$2:$I$16</definedName>
+    <definedName name="_____A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_____AAS1" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="_____ABC1" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="_____abc2" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="____a1">'[2]Relación De Equipos'!$B$2:$I$16</definedName>
+    <definedName name="____A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="___a1">'[2]Relación De Equipos'!$B$2:$I$16</definedName>
+    <definedName name="___A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="___AAS1" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="___ABC1" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="___abc2" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="__11_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="__12_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="__123Graph_A" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__16_B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="__19_4_0__123Grap" hidden="1">[5]CRUDOS!#REF!</definedName>
+    <definedName name="__4___123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__5___123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__6___123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__7__123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__8__123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__9__123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="__a1">'[2]Relación De Equipos'!$B$2:$I$16</definedName>
+    <definedName name="__A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="__AAS1" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="__ABC1" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="__abc2" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="_1___123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_10__123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_11_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_12_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_13B____123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_16_B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_16B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_17_B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_18_4____123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_19_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_2___123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_20_4____123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_21_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_24B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_28B____123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_29B_0__123Graph_XGráfico" hidden="1">[5]CRUDOS!#REF!</definedName>
+    <definedName name="_3___123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_30B____123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_31B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_4___123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_4__123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_5___123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_5___123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_5__123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_6___123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_6___123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_6__123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_7___123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_7__123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_7_4_0__123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_8__123Graph_AGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_8__123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_8_B_0__123Graph_XGráfico" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_9__123Graph_BGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_9__123Graph_XGráfico_4A" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="_9_4____123Grap" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="_a1">'[2]Relación De Equipos'!$B$2:$I$16</definedName>
+    <definedName name="_A2" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="_Dist_Bin" hidden="1">[6]SABANA!#REF!</definedName>
+    <definedName name="_f" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_Fill" hidden="1">'[7]7422CW00'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Relacion_Causion_Viaticos!$A$8:$O$37</definedName>
+    <definedName name="_HJK1" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_Key1" hidden="1">'[8]Rte-Fte-97'!#REF!</definedName>
+    <definedName name="_Key2" hidden="1">#REF!</definedName>
+    <definedName name="_Masa" hidden="1">'[9]Rte-Fte-97'!#REF!</definedName>
+    <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Order2" hidden="1">1</definedName>
+    <definedName name="_OT1">#REF!</definedName>
+    <definedName name="_OT10">#REF!</definedName>
+    <definedName name="_OT11">#REF!</definedName>
+    <definedName name="_OT12">#REF!</definedName>
+    <definedName name="_OT13">#REF!</definedName>
+    <definedName name="_OT14">#REF!</definedName>
+    <definedName name="_OT15">#REF!</definedName>
+    <definedName name="_OT16">#REF!</definedName>
+    <definedName name="_OT17">#REF!</definedName>
+    <definedName name="_OT18">#REF!</definedName>
+    <definedName name="_OT19">#REF!</definedName>
+    <definedName name="_OT2">#REF!</definedName>
+    <definedName name="_OT20">#REF!</definedName>
+    <definedName name="_OT21">#REF!</definedName>
+    <definedName name="_OT22">#REF!</definedName>
+    <definedName name="_OT23">#REF!</definedName>
+    <definedName name="_OT24">#REF!</definedName>
+    <definedName name="_OT25">#REF!</definedName>
+    <definedName name="_OT26">#REF!</definedName>
+    <definedName name="_OT27">#REF!</definedName>
+    <definedName name="_OT28">#REF!</definedName>
+    <definedName name="_OT29">#REF!</definedName>
+    <definedName name="_OT3">#REF!</definedName>
+    <definedName name="_OT30">#REF!</definedName>
+    <definedName name="_OT31">#REF!</definedName>
+    <definedName name="_OT32">#REF!</definedName>
+    <definedName name="_OT33">#REF!</definedName>
+    <definedName name="_OT34">#REF!</definedName>
+    <definedName name="_OT35">#REF!</definedName>
+    <definedName name="_OT36">#REF!</definedName>
+    <definedName name="_OT37">#REF!</definedName>
+    <definedName name="_OT38">#REF!</definedName>
+    <definedName name="_OT39">#REF!</definedName>
+    <definedName name="_OT4">#REF!</definedName>
+    <definedName name="_OT40">#REF!</definedName>
+    <definedName name="_OT41">#REF!</definedName>
+    <definedName name="_OT42">#REF!</definedName>
+    <definedName name="_OT43">#REF!</definedName>
+    <definedName name="_OT44">#REF!</definedName>
+    <definedName name="_OT45">#REF!</definedName>
+    <definedName name="_OT46">#REF!</definedName>
+    <definedName name="_OT47">#REF!</definedName>
+    <definedName name="_OT48">#REF!</definedName>
+    <definedName name="_OT49">#REF!</definedName>
+    <definedName name="_OT5">#REF!</definedName>
+    <definedName name="_OT50">#REF!</definedName>
+    <definedName name="_OT6">#REF!</definedName>
+    <definedName name="_OT7">#REF!</definedName>
+    <definedName name="_OT8">#REF!</definedName>
+    <definedName name="_OT9">#REF!</definedName>
+    <definedName name="_Parse_Out" hidden="1">'[7]7422CW00'!#REF!</definedName>
+    <definedName name="_PO1">#REF!</definedName>
+    <definedName name="_PO10">#REF!</definedName>
+    <definedName name="_PO11">#REF!</definedName>
+    <definedName name="_PO12">#REF!</definedName>
+    <definedName name="_PO13">#REF!</definedName>
+    <definedName name="_PO14">#REF!</definedName>
+    <definedName name="_PO15">#REF!</definedName>
+    <definedName name="_PO16">#REF!</definedName>
+    <definedName name="_PO17">#REF!</definedName>
+    <definedName name="_PO18">#REF!</definedName>
+    <definedName name="_PO19">#REF!</definedName>
+    <definedName name="_PO2">#REF!</definedName>
+    <definedName name="_PO20">#REF!</definedName>
+    <definedName name="_PO21">#REF!</definedName>
+    <definedName name="_PO22">#REF!</definedName>
+    <definedName name="_PO23">#REF!</definedName>
+    <definedName name="_PO24">#REF!</definedName>
+    <definedName name="_PO25">#REF!</definedName>
+    <definedName name="_PO26">#REF!</definedName>
+    <definedName name="_PO27">#REF!</definedName>
+    <definedName name="_PO28">#REF!</definedName>
+    <definedName name="_PO29">#REF!</definedName>
+    <definedName name="_PO3">#REF!</definedName>
+    <definedName name="_PO30">#REF!</definedName>
+    <definedName name="_PO31">#REF!</definedName>
+    <definedName name="_PO32">#REF!</definedName>
+    <definedName name="_PO33">#REF!</definedName>
+    <definedName name="_PO34">#REF!</definedName>
+    <definedName name="_PO35">#REF!</definedName>
+    <definedName name="_PO36">#REF!</definedName>
+    <definedName name="_PO37">#REF!</definedName>
+    <definedName name="_PO38">#REF!</definedName>
+    <definedName name="_PO39">#REF!</definedName>
+    <definedName name="_PO4">#REF!</definedName>
+    <definedName name="_PO40">#REF!</definedName>
+    <definedName name="_PO41">#REF!</definedName>
+    <definedName name="_PO42">#REF!</definedName>
+    <definedName name="_PO43">#REF!</definedName>
+    <definedName name="_PO44">#REF!</definedName>
+    <definedName name="_PO45">#REF!</definedName>
+    <definedName name="_PO46">#REF!</definedName>
+    <definedName name="_PO47">#REF!</definedName>
+    <definedName name="_PO48">#REF!</definedName>
+    <definedName name="_PO49">#REF!</definedName>
+    <definedName name="_PO5">#REF!</definedName>
+    <definedName name="_PO50">#REF!</definedName>
+    <definedName name="_PO6">#REF!</definedName>
+    <definedName name="_PO7">#REF!</definedName>
+    <definedName name="_PO8">#REF!</definedName>
+    <definedName name="_PO9">#REF!</definedName>
+    <definedName name="_PUE2" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_pue3" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_PUE4" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_PUE5" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_PUE6" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_PUE7" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="_RB1">#REF!</definedName>
+    <definedName name="_RB10">#REF!</definedName>
+    <definedName name="_RB11">#REF!</definedName>
+    <definedName name="_RB12">#REF!</definedName>
+    <definedName name="_RB13">#REF!</definedName>
+    <definedName name="_RB14">#REF!</definedName>
+    <definedName name="_RB15">#REF!</definedName>
+    <definedName name="_RB16">#REF!</definedName>
+    <definedName name="_RB17">#REF!</definedName>
+    <definedName name="_RB18">#REF!</definedName>
+    <definedName name="_RB19">#REF!</definedName>
+    <definedName name="_RB2">#REF!</definedName>
+    <definedName name="_RB20">#REF!</definedName>
+    <definedName name="_RB21">#REF!</definedName>
+    <definedName name="_RB22">#REF!</definedName>
+    <definedName name="_RB23">#REF!</definedName>
+    <definedName name="_RB24">#REF!</definedName>
+    <definedName name="_RB25">#REF!</definedName>
+    <definedName name="_RB26">#REF!</definedName>
+    <definedName name="_RB27">#REF!</definedName>
+    <definedName name="_RB28">#REF!</definedName>
+    <definedName name="_RB29">#REF!</definedName>
+    <definedName name="_RB3">#REF!</definedName>
+    <definedName name="_RB30">#REF!</definedName>
+    <definedName name="_RB31">#REF!</definedName>
+    <definedName name="_RB32">#REF!</definedName>
+    <definedName name="_RB33">#REF!</definedName>
+    <definedName name="_RB34">#REF!</definedName>
+    <definedName name="_RB35">#REF!</definedName>
+    <definedName name="_RB36">#REF!</definedName>
+    <definedName name="_RB37">#REF!</definedName>
+    <definedName name="_RB38">#REF!</definedName>
+    <definedName name="_RB39">#REF!</definedName>
+    <definedName name="_RB4">#REF!</definedName>
+    <definedName name="_RB40">#REF!</definedName>
+    <definedName name="_RB41">#REF!</definedName>
+    <definedName name="_RB42">#REF!</definedName>
+    <definedName name="_RB43">#REF!</definedName>
+    <definedName name="_RB44">#REF!</definedName>
+    <definedName name="_RB45">#REF!</definedName>
+    <definedName name="_RB46">#REF!</definedName>
+    <definedName name="_RB47">#REF!</definedName>
+    <definedName name="_RB48">#REF!</definedName>
+    <definedName name="_RB49">#REF!</definedName>
+    <definedName name="_RB5">#REF!</definedName>
+    <definedName name="_RB50">#REF!</definedName>
+    <definedName name="_RB6">#REF!</definedName>
+    <definedName name="_RB7">#REF!</definedName>
+    <definedName name="_RB8">#REF!</definedName>
+    <definedName name="_RB9">#REF!</definedName>
+    <definedName name="_RE1">#REF!</definedName>
+    <definedName name="_RE10">#REF!</definedName>
+    <definedName name="_RE11">#REF!</definedName>
+    <definedName name="_RE12">#REF!</definedName>
+    <definedName name="_RE13">#REF!</definedName>
+    <definedName name="_RE14">#REF!</definedName>
+    <definedName name="_RE15">#REF!</definedName>
+    <definedName name="_RE16">#REF!</definedName>
+    <definedName name="_RE17">#REF!</definedName>
+    <definedName name="_RE18">#REF!</definedName>
+    <definedName name="_RE19">#REF!</definedName>
+    <definedName name="_RE2">#REF!</definedName>
+    <definedName name="_RE20">#REF!</definedName>
+    <definedName name="_RE21">#REF!</definedName>
+    <definedName name="_RE22">#REF!</definedName>
+    <definedName name="_RE23">#REF!</definedName>
+    <definedName name="_RE24">#REF!</definedName>
+    <definedName name="_RE25">#REF!</definedName>
+    <definedName name="_RE26">#REF!</definedName>
+    <definedName name="_RE27">#REF!</definedName>
+    <definedName name="_RE28">#REF!</definedName>
+    <definedName name="_RE29">#REF!</definedName>
+    <definedName name="_RE3">#REF!</definedName>
+    <definedName name="_RE30">#REF!</definedName>
+    <definedName name="_RE31">#REF!</definedName>
+    <definedName name="_RE32">#REF!</definedName>
+    <definedName name="_RE33">#REF!</definedName>
+    <definedName name="_RE34">#REF!</definedName>
+    <definedName name="_RE35">#REF!</definedName>
+    <definedName name="_RE36">#REF!</definedName>
+    <definedName name="_RE37">#REF!</definedName>
+    <definedName name="_RE38">#REF!</definedName>
+    <definedName name="_RE39">#REF!</definedName>
+    <definedName name="_RE4">#REF!</definedName>
+    <definedName name="_RE40">#REF!</definedName>
+    <definedName name="_RE41">#REF!</definedName>
+    <definedName name="_RE42">#REF!</definedName>
+    <definedName name="_RE43">#REF!</definedName>
+    <definedName name="_RE44">#REF!</definedName>
+    <definedName name="_RE45">#REF!</definedName>
+    <definedName name="_RE46">#REF!</definedName>
+    <definedName name="_RE47">#REF!</definedName>
+    <definedName name="_RE48">#REF!</definedName>
+    <definedName name="_RE49">#REF!</definedName>
+    <definedName name="_RE5">#REF!</definedName>
+    <definedName name="_RE50">#REF!</definedName>
+    <definedName name="_RE6">#REF!</definedName>
+    <definedName name="_RE7">#REF!</definedName>
+    <definedName name="_RE8">#REF!</definedName>
+    <definedName name="_RE9">#REF!</definedName>
+    <definedName name="_Regression_Out" hidden="1">[6]SABANA!#REF!</definedName>
+    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="_REGRESSION_XNJA" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" hidden="1">'[10]140 kbbld Cus,BCF22'!$C$39:$F$40</definedName>
+    <definedName name="_Sort" hidden="1">'[9]Rte-Fte-97'!#REF!</definedName>
+    <definedName name="_SortNJA" hidden="1">#REF!</definedName>
+    <definedName name="_VAR1">#REF!</definedName>
+    <definedName name="_VI10">[11]relviat!#REF!</definedName>
+    <definedName name="_VI11">[11]relviat!#REF!</definedName>
+    <definedName name="_VI12">[11]relviat!#REF!</definedName>
+    <definedName name="_VI13">[11]relviat!#REF!</definedName>
+    <definedName name="_VI14">[11]relviat!#REF!</definedName>
+    <definedName name="_VI15">[11]relviat!#REF!</definedName>
+    <definedName name="_VI16">[11]relviat!#REF!</definedName>
+    <definedName name="_VI17">[11]relviat!#REF!</definedName>
+    <definedName name="_VI18">[11]relviat!#REF!</definedName>
+    <definedName name="_VI19">[11]relviat!#REF!</definedName>
+    <definedName name="_VI2">[11]relviat!#REF!</definedName>
+    <definedName name="_VI20">[11]relviat!#REF!</definedName>
+    <definedName name="_VI21">[11]relviat!#REF!</definedName>
+    <definedName name="_VI22">[11]relviat!#REF!</definedName>
+    <definedName name="_VI23">[11]relviat!#REF!</definedName>
+    <definedName name="_VI24">[11]relviat!#REF!</definedName>
+    <definedName name="_VI25">[11]relviat!#REF!</definedName>
+    <definedName name="_VI26">[11]relviat!#REF!</definedName>
+    <definedName name="_VI27">[11]relviat!#REF!</definedName>
+    <definedName name="_VI28">[11]relviat!#REF!</definedName>
+    <definedName name="_VI29">[11]relviat!#REF!</definedName>
+    <definedName name="_VI3">[11]relviat!#REF!</definedName>
+    <definedName name="_VI30">[11]relviat!#REF!</definedName>
+    <definedName name="_VI31">[11]relviat!#REF!</definedName>
+    <definedName name="_VI32">[11]relviat!#REF!</definedName>
+    <definedName name="_VI33">[11]relviat!#REF!</definedName>
+    <definedName name="_VI34">[11]relviat!#REF!</definedName>
+    <definedName name="_VI35">[11]relviat!#REF!</definedName>
+    <definedName name="_VI36">[11]relviat!#REF!</definedName>
+    <definedName name="_VI37">[11]relviat!#REF!</definedName>
+    <definedName name="_VI38">[11]relviat!#REF!</definedName>
+    <definedName name="_VI39">[11]relviat!#REF!</definedName>
+    <definedName name="_VI4">[11]relviat!#REF!</definedName>
+    <definedName name="_VI40">[11]relviat!#REF!</definedName>
+    <definedName name="_VI41">[11]relviat!#REF!</definedName>
+    <definedName name="_VI42">[11]relviat!#REF!</definedName>
+    <definedName name="_VI43">[11]relviat!#REF!</definedName>
+    <definedName name="_VI44">[11]relviat!#REF!</definedName>
+    <definedName name="_VI45">[11]relviat!#REF!</definedName>
+    <definedName name="_VI46">[11]relviat!#REF!</definedName>
+    <definedName name="_VI47">[11]relviat!#REF!</definedName>
+    <definedName name="_VI48">[11]relviat!#REF!</definedName>
+    <definedName name="_VI49">[11]relviat!#REF!</definedName>
+    <definedName name="_VI5">[11]relviat!#REF!</definedName>
+    <definedName name="_VI50">[11]relviat!#REF!</definedName>
+    <definedName name="_VI6">[11]relviat!#REF!</definedName>
+    <definedName name="_VI7">[11]relviat!#REF!</definedName>
+    <definedName name="_VI8">[11]relviat!#REF!</definedName>
+    <definedName name="_VI9">[11]relviat!#REF!</definedName>
+    <definedName name="A">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="A_impresión_IM">#REF!</definedName>
+    <definedName name="a6d" hidden="1">{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}</definedName>
+    <definedName name="AA" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="aaa">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="AAAA">#REF!</definedName>
+    <definedName name="AAAAA">#REF!</definedName>
+    <definedName name="aaaaaaaa" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="AAS" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="ab" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="ABCD" hidden="1">#REF!</definedName>
+    <definedName name="ABCDE" hidden="1">#REF!</definedName>
+    <definedName name="ABSBSBSBSBSBSBSBS">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="AccessDatabase" hidden="1">"C:\EXCEL\FILESXLS\TELEX\LIBRO99.mdb"</definedName>
+    <definedName name="ACT">#REF!</definedName>
+    <definedName name="Actividades">#REF!</definedName>
+    <definedName name="actividadesmmto">[12]TARIFAS!$D$14:$D$171</definedName>
+    <definedName name="actividadesmtto">[12]TARIFAS!$D$14:$D$171</definedName>
+    <definedName name="Administración">#REF!</definedName>
+    <definedName name="Ajusteinf" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="AJUSTPTO" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="AREA">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area">#REF!</definedName>
+    <definedName name="ARP">#REF!</definedName>
+    <definedName name="AWD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="B">#REF!</definedName>
+    <definedName name="BASE">[8]Formato!#REF!</definedName>
+    <definedName name="basecontrato">#REF!</definedName>
+    <definedName name="basenombres">OFFSET([13]PersActi!$A$1,0,0,COUNTA([13]PersActi!$A:$A),9)</definedName>
+    <definedName name="Bases">[14]Datos!$L$2:$L$16</definedName>
+    <definedName name="BB" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="BC">#REF!</definedName>
+    <definedName name="BDD">#REF!</definedName>
+    <definedName name="bfdgh" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="Button_1">"LIBRO99_Sheet6_List"</definedName>
+    <definedName name="CA" hidden="1">[15]DATOS!#REF!</definedName>
+    <definedName name="CABCELAR" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="CANT111">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT112">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT113">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT114">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT115">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT116">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT117">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT118">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT119">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT120">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT121">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT122">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT123">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT124">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT125">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT126">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT127">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT128">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT129">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT130">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT131">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT132">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT133">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT134">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT135">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT136">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT137">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT138">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT139">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT140">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT141">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT142">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT143">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT144">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT145">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT146">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT147">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT148">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT149">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT150">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT151">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT152">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT153">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT154">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT155">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT156">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT157">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT158">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT159">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT160">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT161">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT162">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT163">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT164">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT165">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT166">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT167">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT168">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT169">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT170">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT171">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT172">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT173">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT174">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT175">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT176">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT177">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT178">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT179">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT180">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT181">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT182">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT183">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT184">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT185">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT186">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT187">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT188">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT189">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT190">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT191">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT192">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT193">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT194">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT195">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT196">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT197">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT198">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT199">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT200">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT201">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT202">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT203">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT204">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT205">[16]ITEMS!#REF!</definedName>
+    <definedName name="CANT206">[16]ITEMS!#REF!</definedName>
+    <definedName name="CARNET">#REF!</definedName>
+    <definedName name="CD">[16]ITEMS!#REF!</definedName>
+    <definedName name="CESAR" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="CHACA" hidden="1">[15]DATOS!#REF!</definedName>
+    <definedName name="CIUDADES">#REF!</definedName>
+    <definedName name="CIUDADES2">#REF!</definedName>
+    <definedName name="CLASE_DE_MANTTO">#REF!</definedName>
+    <definedName name="COL">#REF!</definedName>
+    <definedName name="COLMENA">#REF!</definedName>
+    <definedName name="COMFABOY">#REF!</definedName>
+    <definedName name="COMPMEDFAM">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="consum" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="CONTABLE" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="CONTABLES" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="CONVENCION">#REF!</definedName>
+    <definedName name="CONVENCIONAL">#REF!</definedName>
+    <definedName name="COPI" hidden="1">'[9]Rte-Fte-97'!#REF!</definedName>
+    <definedName name="COPIAR">[8]Formato!#REF!</definedName>
+    <definedName name="cost04" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="COSTCONTAB" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="costivos" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="costoperativos" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="costos" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="costos04" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="CRUDOS" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="CUADRILLA">#REF!</definedName>
+    <definedName name="CUADRILLAS">#REF!</definedName>
+    <definedName name="cusum1" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="D">[16]APU!#REF!</definedName>
+    <definedName name="DA">#REF!</definedName>
+    <definedName name="DATOS">1</definedName>
+    <definedName name="DD">#REF!</definedName>
+    <definedName name="ddd">#REF!</definedName>
+    <definedName name="DDDD" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="ddddd">[16]ITEMS!#REF!</definedName>
+    <definedName name="ddddddd" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DES" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DESC111">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC112">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC113">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC114">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC115">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC116">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC117">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC118">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC119">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC120">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC121">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC122">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC123">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC124">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC125">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC126">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC127">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC128">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC129">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC130">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC131">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC132">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC133">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC134">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC135">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC136">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC137">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC138">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC139">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC140">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC141">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC142">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC143">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC144">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC145">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC146">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC147">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC148">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC149">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC150">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC151">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC152">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC153">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC154">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC155">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC156">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC157">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC158">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC159">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC160">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC161">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC162">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC163">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC164">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC165">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC166">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC167">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC168">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC169">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC170">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC171">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC172">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC173">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC174">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC175">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC176">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC177">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC178">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC179">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC180">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC181">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC182">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC183">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC184">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC185">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC186">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC187">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC188">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC189">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC190">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC191">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC192">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC193">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC194">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC195">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC196">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC197">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC198">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC199">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC200">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC201">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC202">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC203">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC204">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC205">[16]ITEMS!#REF!</definedName>
+    <definedName name="DESC206">[16]ITEMS!#REF!</definedName>
+    <definedName name="DF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DFA" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="dfd" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DFDF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DFDFD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DFDFDFDFD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DFFDF" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="DFGHH">#REF!</definedName>
+    <definedName name="dfr" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="dgdgdhdh" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="direccion" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="DIRECTO111">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO112">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO113">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO114">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO115">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO116">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO117">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO118">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO119">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO120">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO121">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO122">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO123">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO124">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO125">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO126">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO127">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO128">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO129">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO130">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO131">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO132">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO133">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO134">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO135">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO136">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO137">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO138">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO139">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO140">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO141">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO142">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO143">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO144">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO145">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO146">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO147">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO148">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO149">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO150">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO151">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO152">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO153">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO154">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO155">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO156">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO157">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO158">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO159">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO160">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO161">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO162">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO163">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO164">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO165">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO166">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO167">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO168">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO169">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO170">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO171">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO172">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO173">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO174">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO175">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO176">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO177">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO178">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO179">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO180">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO181">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO182">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO183">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO184">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO185">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO186">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO187">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO188">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO189">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO190">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO191">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO192">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO193">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO194">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO195">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO196">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO197">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO198">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO199">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO200">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO201">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO202">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO203">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO204">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO205">[16]APU!#REF!</definedName>
+    <definedName name="DIRECTO206">[16]APU!#REF!</definedName>
+    <definedName name="dos">#REF!</definedName>
+    <definedName name="DOT">#REF!</definedName>
+    <definedName name="DOTACIO">#REF!</definedName>
+    <definedName name="DOTACION">#REF!</definedName>
+    <definedName name="DSD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DSDS" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DSDSD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DSDSDS" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DSDSDSD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DSFA" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="DTBASICOS">#REF!</definedName>
+    <definedName name="DURACION">#REF!</definedName>
+    <definedName name="dyu5yrt" hidden="1">[5]CRUDOS!#REF!</definedName>
+    <definedName name="eb">[12]TARIFAS!$D$257:$D$304</definedName>
+    <definedName name="EDFF">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="EE" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="eee" hidden="1">{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}</definedName>
+    <definedName name="eefaseIINCDIES" hidden="1">{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}</definedName>
+    <definedName name="EFFASEI_INC_DIESEL2" hidden="1">{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}</definedName>
+    <definedName name="empleadosnuevos">#REF!</definedName>
+    <definedName name="Empresa">'[17]Inf-Empresa'!$AA$11</definedName>
+    <definedName name="eo">[12]TARIFAS!$D$310:$D$545</definedName>
+    <definedName name="EQUIP111">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP112">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP113">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP114">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP115">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP116">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP117">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP118">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP119">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP120">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP121">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP122">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP123">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP124">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP125">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP126">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP127">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP128">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP129">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP130">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP131">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP132">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP133">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP134">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP135">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP136">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP137">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP138">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP139">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP140">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP141">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP142">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP143">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP144">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP145">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP146">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP147">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP148">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP149">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP150">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP151">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP152">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP153">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP154">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP155">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP156">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP157">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP158">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP159">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP160">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP161">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP162">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP163">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP164">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP165">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP166">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP167">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP168">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP169">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP170">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP171">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP172">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP173">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP174">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP175">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP176">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP177">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP178">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP179">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP180">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP181">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP182">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP183">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP184">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP185">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP186">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP187">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP188">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP189">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP190">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP191">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP192">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP193">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP194">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP195">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP196">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP197">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP198">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP199">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP200">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP201">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP202">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP203">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP204">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP205">[16]APU!#REF!</definedName>
+    <definedName name="EQUIP206">[16]APU!#REF!</definedName>
+    <definedName name="Equipos_Herramientas">'[18]Data Base-R'!$I$67:$I$116</definedName>
+    <definedName name="equiposyherramientas">#REF!</definedName>
+    <definedName name="er" hidden="1">[5]CRUDOS!#REF!</definedName>
+    <definedName name="ERE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="ererrreer" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="escalafonconvencional">#REF!</definedName>
+    <definedName name="ESP.">#REF!</definedName>
+    <definedName name="Especialista" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="ETP">#REF!</definedName>
+    <definedName name="EWE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="EWERE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="EWEWE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="EWEWEWE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="eyeyey" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="FA" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="FD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FDFD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="fdfdf" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FDFDFD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FDFDFDFD" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FDFDFDFDFDFDFDFDFDFDF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FDSFSDS" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FEEE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="FEST">#REF!</definedName>
+    <definedName name="FF" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="FFFF" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="fffffff" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="fffggg" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="fghj" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="fhg" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="FILA">#REF!</definedName>
+    <definedName name="fORMA9698" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="FORMAUNIT" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="gc" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="GER">#REF!</definedName>
+    <definedName name="GERENCIA">#REF!</definedName>
+    <definedName name="Gerente">'[17]Inf-Empresa'!$AA$14</definedName>
+    <definedName name="gerger" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="GF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="gggggggggggggggg">[19]Informacion!$H$4:$H$21</definedName>
+    <definedName name="GR10F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR10I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR11F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR11I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR12F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR12I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR1F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR1I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR2F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR2I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR3F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR3I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR4F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR4I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR5F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR5I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR6F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR6I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR7F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR7I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR8F">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR8I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GR9F">#REF!</definedName>
+    <definedName name="GR9I">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="GRCHIS0599" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="GUS" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="GUSTAVO" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="h56h" hidden="1">{0,0,0,0;0,0,0,0}</definedName>
+    <definedName name="HD">#REF!</definedName>
+    <definedName name="HED">#REF!</definedName>
+    <definedName name="HEDF">#REF!</definedName>
+    <definedName name="HEN">#REF!</definedName>
+    <definedName name="HEND">#REF!</definedName>
+    <definedName name="HENF">#REF!</definedName>
+    <definedName name="Herramienta" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="HEXTRAS">#REF!</definedName>
+    <definedName name="hghghghghgh" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="hhghhghghhgg" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="hhhhhhhhhh" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="hhhhhhhhhhhhhhhh">[19]Informacion!$H$4:$H$21</definedName>
+    <definedName name="HIK" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="HISTORICO" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="hjk" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="HKJ" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="HO">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="HOD">#REF!</definedName>
+    <definedName name="HODF">#REF!</definedName>
+    <definedName name="HOJAVIDA">#REF!</definedName>
+    <definedName name="HON">#REF!</definedName>
+    <definedName name="HONF">#REF!</definedName>
+    <definedName name="HSIT" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="HT">#REF!</definedName>
+    <definedName name="HTF">#REF!</definedName>
+    <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="HTML_Description" hidden="1">""</definedName>
+    <definedName name="HTML_Email" hidden="1">""</definedName>
+    <definedName name="HTML_Header" hidden="1">"Sheet2"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="1">"08/30/01"</definedName>
+    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="1">TRUE</definedName>
+    <definedName name="HTML_Name" hidden="1">"Informacion y Computacion"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="1">0</definedName>
+    <definedName name="HTML_PathFile" hidden="1">"N:\ACTIVIDADES DISTRITO HUILA\MANTENIMIENTO INDUSTRIAL\2PLANEACION\MyHTML.htm"</definedName>
+    <definedName name="HTML_Title" hidden="1">"PLAN PERDIDAS 2001 ultimo"</definedName>
+    <definedName name="HUMANAVIVIR">#REF!</definedName>
+    <definedName name="ICSS">#REF!</definedName>
+    <definedName name="IMPR">#REF!</definedName>
+    <definedName name="Imprevistos">#REF!</definedName>
+    <definedName name="IMPRIMIRMATRIZ">#REF!</definedName>
+    <definedName name="INDPYG9698" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="ING" hidden="1">{#N/A,#N/A,FALSE,"DITCAR";#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"04PG12NB"}</definedName>
+    <definedName name="INGREHIS" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="Ingresos" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="Ingresos06" hidden="1">{"'Sheet2'!$A$3:$B$17"}</definedName>
+    <definedName name="INGRESOSRETIROS">#REF!</definedName>
+    <definedName name="INICIA">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="IOPIOU" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="ISSAFP">#REF!</definedName>
+    <definedName name="ISSEPS">#REF!</definedName>
+    <definedName name="ITEM">#REF!</definedName>
+    <definedName name="ITEM111">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM112">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM113">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM114">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM115">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM116">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM117">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM118">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM119">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM120">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM121">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM122">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM123">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM124">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM125">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM126">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM127">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM128">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM129">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM130">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM131">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM132">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM133">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM134">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM135">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM136">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM137">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM138">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM139">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM140">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM141">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM142">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM143">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM144">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM145">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM146">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM147">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM148">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM149">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM150">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM151">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM152">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM153">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM154">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM155">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM156">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM157">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM158">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM159">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM160">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM161">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM162">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM163">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM164">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM165">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM166">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM167">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM168">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM169">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM170">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM171">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM172">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM173">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM174">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM175">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM176">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM177">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM178">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM179">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM180">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM181">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM182">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM183">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM184">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM185">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM186">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM187">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM188">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM189">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM190">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM191">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM192">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM193">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM194">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM195">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM196">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM197">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM198">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM199">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM200">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM201">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM202">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM203">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM204">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM205">[16]ITEMS!#REF!</definedName>
+    <definedName name="ITEM206">[16]ITEMS!#REF!</definedName>
+    <definedName name="IV">#REF!</definedName>
+    <definedName name="jhj" hidden="1">'[8]Rte-Fte-97'!#REF!</definedName>
+    <definedName name="jjjjjjjjjjjjjaaaaaaaaaaaaa">[19]Informacion!$H$4:$H$21</definedName>
+    <definedName name="JOHN" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="jp" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="kljh" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="LEGALDIRECCION">#REF!</definedName>
+    <definedName name="LEGALIZACIONES">#REF!,#REF!</definedName>
+    <definedName name="Lista_Nombres">[20]Listas!$A$1:$I$191</definedName>
+    <definedName name="M.AC">#REF!</definedName>
+    <definedName name="MAESTRO">#REF!</definedName>
+    <definedName name="Mano_de_Obra">'[18]Data Base-R'!$I$176:$I$225</definedName>
+    <definedName name="MANO111">[16]APU!#REF!</definedName>
+    <definedName name="MANO112">[16]APU!#REF!</definedName>
+    <definedName name="MANO113">[16]APU!#REF!</definedName>
+    <definedName name="MANO114">[16]APU!#REF!</definedName>
+    <definedName name="MANO115">[16]APU!#REF!</definedName>
+    <definedName name="MANO116">[16]APU!#REF!</definedName>
+    <definedName name="MANO117">[16]APU!#REF!</definedName>
+    <definedName name="MANO118">[16]APU!#REF!</definedName>
+    <definedName name="MANO119">[16]APU!#REF!</definedName>
+    <definedName name="MANO120">[16]APU!#REF!</definedName>
+    <definedName name="MANO121">[16]APU!#REF!</definedName>
+    <definedName name="MANO122">[16]APU!#REF!</definedName>
+    <definedName name="MANO123">[16]APU!#REF!</definedName>
+    <definedName name="MANO124">[16]APU!#REF!</definedName>
+    <definedName name="MANO125">[16]APU!#REF!</definedName>
+    <definedName name="MANO126">[16]APU!#REF!</definedName>
+    <definedName name="MANO127">[16]APU!#REF!</definedName>
+    <definedName name="MANO128">[16]APU!#REF!</definedName>
+    <definedName name="MANO129">[16]APU!#REF!</definedName>
+    <definedName name="MANO130">[16]APU!#REF!</definedName>
+    <definedName name="MANO131">[16]APU!#REF!</definedName>
+    <definedName name="MANO132">[16]APU!#REF!</definedName>
+    <definedName name="MANO133">[16]APU!#REF!</definedName>
+    <definedName name="MANO134">[16]APU!#REF!</definedName>
+    <definedName name="MANO135">[16]APU!#REF!</definedName>
+    <definedName name="MANO136">[16]APU!#REF!</definedName>
+    <definedName name="MANO137">[16]APU!#REF!</definedName>
+    <definedName name="MANO138">[16]APU!#REF!</definedName>
+    <definedName name="MANO139">[16]APU!#REF!</definedName>
+    <definedName name="MANO140">[16]APU!#REF!</definedName>
+    <definedName name="MANO141">[16]APU!#REF!</definedName>
+    <definedName name="MANO142">[16]APU!#REF!</definedName>
+    <definedName name="MANO143">[16]APU!#REF!</definedName>
+    <definedName name="MANO144">[16]APU!#REF!</definedName>
+    <definedName name="MANO145">[16]APU!#REF!</definedName>
+    <definedName name="MANO146">[16]APU!#REF!</definedName>
+    <definedName name="MANO147">[16]APU!#REF!</definedName>
+    <definedName name="MANO148">[16]APU!#REF!</definedName>
+    <definedName name="MANO149">[16]APU!#REF!</definedName>
+    <definedName name="MANO150">[16]APU!#REF!</definedName>
+    <definedName name="MANO151">[16]APU!#REF!</definedName>
+    <definedName name="MANO152">[16]APU!#REF!</definedName>
+    <definedName name="MANO153">[16]APU!#REF!</definedName>
+    <definedName name="MANO154">[16]APU!#REF!</definedName>
+    <definedName name="MANO155">[16]APU!#REF!</definedName>
+    <definedName name="MANO156">[16]APU!#REF!</definedName>
+    <definedName name="MANO157">[16]APU!#REF!</definedName>
+    <definedName name="MANO158">[16]APU!#REF!</definedName>
+    <definedName name="MANO159">[16]APU!#REF!</definedName>
+    <definedName name="MANO160">[16]APU!#REF!</definedName>
+    <definedName name="MANO161">[16]APU!#REF!</definedName>
+    <definedName name="MANO162">[16]APU!#REF!</definedName>
+    <definedName name="MANO163">[16]APU!#REF!</definedName>
+    <definedName name="MANO164">[16]APU!#REF!</definedName>
+    <definedName name="MANO165">[16]APU!#REF!</definedName>
+    <definedName name="MANO166">[16]APU!#REF!</definedName>
+    <definedName name="MANO167">[16]APU!#REF!</definedName>
+    <definedName name="MANO168">[16]APU!#REF!</definedName>
+    <definedName name="MANO169">[16]APU!#REF!</definedName>
+    <definedName name="MANO170">[16]APU!#REF!</definedName>
+    <definedName name="MANO171">[16]APU!#REF!</definedName>
+    <definedName name="MANO172">[16]APU!#REF!</definedName>
+    <definedName name="MANO173">[16]APU!#REF!</definedName>
+    <definedName name="MANO174">[16]APU!#REF!</definedName>
+    <definedName name="MANO175">[16]APU!#REF!</definedName>
+    <definedName name="MANO176">[16]APU!#REF!</definedName>
+    <definedName name="MANO177">[16]APU!#REF!</definedName>
+    <definedName name="MANO178">[16]APU!#REF!</definedName>
+    <definedName name="MANO179">[16]APU!#REF!</definedName>
+    <definedName name="MANO180">[16]APU!#REF!</definedName>
+    <definedName name="MANO181">[16]APU!#REF!</definedName>
+    <definedName name="MANO182">[16]APU!#REF!</definedName>
+    <definedName name="MANO183">[16]APU!#REF!</definedName>
+    <definedName name="MANO184">[16]APU!#REF!</definedName>
+    <definedName name="MANO185">[16]APU!#REF!</definedName>
+    <definedName name="MANO186">[16]APU!#REF!</definedName>
+    <definedName name="MANO187">[16]APU!#REF!</definedName>
+    <definedName name="MANO188">[16]APU!#REF!</definedName>
+    <definedName name="MANO189">[16]APU!#REF!</definedName>
+    <definedName name="MANO190">[16]APU!#REF!</definedName>
+    <definedName name="MANO191">[16]APU!#REF!</definedName>
+    <definedName name="MANO192">[16]APU!#REF!</definedName>
+    <definedName name="MANO193">[16]APU!#REF!</definedName>
+    <definedName name="MANO194">[16]APU!#REF!</definedName>
+    <definedName name="MANO195">[16]APU!#REF!</definedName>
+    <definedName name="MANO196">[16]APU!#REF!</definedName>
+    <definedName name="MANO197">[16]APU!#REF!</definedName>
+    <definedName name="MANO198">[16]APU!#REF!</definedName>
+    <definedName name="MANO199">[16]APU!#REF!</definedName>
+    <definedName name="MANO200">[16]APU!#REF!</definedName>
+    <definedName name="MANO201">[16]APU!#REF!</definedName>
+    <definedName name="MANO202">[16]APU!#REF!</definedName>
+    <definedName name="MANO203">[16]APU!#REF!</definedName>
+    <definedName name="MANO204">[16]APU!#REF!</definedName>
+    <definedName name="MANO205">[16]APU!#REF!</definedName>
+    <definedName name="MANO206">[16]APU!#REF!</definedName>
+    <definedName name="manodeobra">#REF!</definedName>
+    <definedName name="MAQUINARIAPESADA">#REF!</definedName>
+    <definedName name="marina">#REF!</definedName>
+    <definedName name="MATE111">[16]APU!#REF!</definedName>
+    <definedName name="MATE112">[16]APU!#REF!</definedName>
+    <definedName name="MATE113">[16]APU!#REF!</definedName>
+    <definedName name="MATE114">[16]APU!#REF!</definedName>
+    <definedName name="MATE115">[16]APU!#REF!</definedName>
+    <definedName name="MATE116">[16]APU!#REF!</definedName>
+    <definedName name="MATE117">[16]APU!#REF!</definedName>
+    <definedName name="MATE118">[16]APU!#REF!</definedName>
+    <definedName name="MATE119">[16]APU!#REF!</definedName>
+    <definedName name="MATE120">[16]APU!#REF!</definedName>
+    <definedName name="MATE121">[16]APU!#REF!</definedName>
+    <definedName name="MATE122">[16]APU!#REF!</definedName>
+    <definedName name="MATE123">[16]APU!#REF!</definedName>
+    <definedName name="MATE124">[16]APU!#REF!</definedName>
+    <definedName name="MATE125">[16]APU!#REF!</definedName>
+    <definedName name="MATE126">[16]APU!#REF!</definedName>
+    <definedName name="MATE127">[16]APU!#REF!</definedName>
+    <definedName name="MATE128">[16]APU!#REF!</definedName>
+    <definedName name="MATE129">[16]APU!#REF!</definedName>
+    <definedName name="MATE130">[16]APU!#REF!</definedName>
+    <definedName name="MATE131">[16]APU!#REF!</definedName>
+    <definedName name="MATE132">[16]APU!#REF!</definedName>
+    <definedName name="MATE133">[16]APU!#REF!</definedName>
+    <definedName name="MATE134">[16]APU!#REF!</definedName>
+    <definedName name="MATE135">[16]APU!#REF!</definedName>
+    <definedName name="MATE136">[16]APU!#REF!</definedName>
+    <definedName name="MATE137">[16]APU!#REF!</definedName>
+    <definedName name="MATE138">[16]APU!#REF!</definedName>
+    <definedName name="MATE139">[16]APU!#REF!</definedName>
+    <definedName name="MATE140">[16]APU!#REF!</definedName>
+    <definedName name="MATE141">[16]APU!#REF!</definedName>
+    <definedName name="MATE142">[16]APU!#REF!</definedName>
+    <definedName name="MATE143">[16]APU!#REF!</definedName>
+    <definedName name="MATE144">[16]APU!#REF!</definedName>
+    <definedName name="MATE145">[16]APU!#REF!</definedName>
+    <definedName name="MATE146">[16]APU!#REF!</definedName>
+    <definedName name="MATE147">[16]APU!#REF!</definedName>
+    <definedName name="MATE148">[16]APU!#REF!</definedName>
+    <definedName name="MATE149">[16]APU!#REF!</definedName>
+    <definedName name="MATE150">[16]APU!#REF!</definedName>
+    <definedName name="MATE151">[16]APU!#REF!</definedName>
+    <definedName name="MATE152">[16]APU!#REF!</definedName>
+    <definedName name="MATE153">[16]APU!#REF!</definedName>
+    <definedName name="MATE154">[16]APU!#REF!</definedName>
+    <definedName name="MATE155">[16]APU!#REF!</definedName>
+    <definedName name="MATE156">[16]APU!#REF!</definedName>
+    <definedName name="MATE157">[16]APU!#REF!</definedName>
+    <definedName name="MATE158">[16]APU!#REF!</definedName>
+    <definedName name="MATE159">[16]APU!#REF!</definedName>
+    <definedName name="MATE160">[16]APU!#REF!</definedName>
+    <definedName name="MATE161">[16]APU!#REF!</definedName>
+    <definedName name="MATE162">[16]APU!#REF!</definedName>
+    <definedName name="MATE163">[16]APU!#REF!</definedName>
+    <definedName name="MATE164">[16]APU!#REF!</definedName>
+    <definedName name="MATE165">[16]APU!#REF!</definedName>
+    <definedName name="MATE166">[16]APU!#REF!</definedName>
+    <definedName name="MATE167">[16]APU!#REF!</definedName>
+    <definedName name="MATE168">[16]APU!#REF!</definedName>
+    <definedName name="MATE169">[16]APU!#REF!</definedName>
+    <definedName name="MATE170">[16]APU!#REF!</definedName>
+    <definedName name="MATE171">[16]APU!#REF!</definedName>
+    <definedName name="MATE172">[16]APU!#REF!</definedName>
+    <definedName name="MATE173">[16]APU!#REF!</definedName>
+    <definedName name="MATE174">[16]APU!#REF!</definedName>
+    <definedName name="MATE175">[16]APU!#REF!</definedName>
+    <definedName name="MATE176">[16]APU!#REF!</definedName>
+    <definedName name="MATE177">[16]APU!#REF!</definedName>
+    <definedName name="MATE178">[16]APU!#REF!</definedName>
+    <definedName name="MATE179">[16]APU!#REF!</definedName>
+    <definedName name="MATE180">[16]APU!#REF!</definedName>
+    <definedName name="MATE181">[16]APU!#REF!</definedName>
+    <definedName name="MATE182">[16]APU!#REF!</definedName>
+    <definedName name="MATE183">[16]APU!#REF!</definedName>
+    <definedName name="MATE184">[16]APU!#REF!</definedName>
+    <definedName name="MATE185">[16]APU!#REF!</definedName>
+    <definedName name="MATE186">[16]APU!#REF!</definedName>
+    <definedName name="MATE187">[16]APU!#REF!</definedName>
+    <definedName name="MATE188">[16]APU!#REF!</definedName>
+    <definedName name="MATE189">[16]APU!#REF!</definedName>
+    <definedName name="MATE190">[16]APU!#REF!</definedName>
+    <definedName name="MATE191">[16]APU!#REF!</definedName>
+    <definedName name="MATE192">[16]APU!#REF!</definedName>
+    <definedName name="MATE193">[16]APU!#REF!</definedName>
+    <definedName name="MATE194">[16]APU!#REF!</definedName>
+    <definedName name="MATE195">[16]APU!#REF!</definedName>
+    <definedName name="MATE196">[16]APU!#REF!</definedName>
+    <definedName name="MATE197">[16]APU!#REF!</definedName>
+    <definedName name="MATE198">[16]APU!#REF!</definedName>
+    <definedName name="MATE199">[16]APU!#REF!</definedName>
+    <definedName name="MATE200">[16]APU!#REF!</definedName>
+    <definedName name="MATE201">[16]APU!#REF!</definedName>
+    <definedName name="MATE202">[16]APU!#REF!</definedName>
+    <definedName name="MATE203">[16]APU!#REF!</definedName>
+    <definedName name="MATE204">[16]APU!#REF!</definedName>
+    <definedName name="MATE205">[16]APU!#REF!</definedName>
+    <definedName name="MATE206">[16]APU!#REF!</definedName>
+    <definedName name="materiales">#REF!</definedName>
+    <definedName name="MEDFAM">#REF!</definedName>
+    <definedName name="mem" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="memorias" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="MEMPYGH" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="MEMPYGHIS" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="MENU">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="MES">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="MLKJ" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="mODI" hidden="1">{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}</definedName>
+    <definedName name="mODIF" hidden="1">{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}</definedName>
+    <definedName name="Nit">'[17]Inf-Empresa'!$AA$12</definedName>
+    <definedName name="noemi" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="NOMBRE">#REF!</definedName>
+    <definedName name="Nombres">[21]Listas!$A$2:$A$331</definedName>
+    <definedName name="Norte">#REF!</definedName>
+    <definedName name="Nueva" hidden="1">{#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"a4D";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"A6D";#N/A,#N/A,FALSE,"INV"}</definedName>
+    <definedName name="NvsASD">"V1999-07-31"</definedName>
+    <definedName name="NvsAutoDrillOk">"VY"</definedName>
+    <definedName name="NvsElapsedTime">0.0000649305584374815</definedName>
+    <definedName name="NvsEndTime">36404.3128642361</definedName>
+    <definedName name="NvsInstSpec">"%"</definedName>
+    <definedName name="NvsLayoutType">"M3"</definedName>
+    <definedName name="NvsNplSpec">"%,X,RZF..,CZF.."</definedName>
+    <definedName name="NvsPanelEffdt">"V1999-01-01"</definedName>
+    <definedName name="NvsPanelSetid">"VHOCOL"</definedName>
+    <definedName name="NvsReqBU">"VHOCOL"</definedName>
+    <definedName name="NvsReqBUOnly">"VY"</definedName>
+    <definedName name="NvsTransLed">"VN"</definedName>
+    <definedName name="NvsTreeASD">"V1999-07-31"</definedName>
+    <definedName name="NvsValTbl.ANALYSIS_TYPE">"PROJ_ANTYPE_TBL"</definedName>
+    <definedName name="NvsValTbl.PRODUCT">"PRODUCT_TBL"</definedName>
+    <definedName name="ññ" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="o">'[22]11 AL 25 ABR-01'!$M$7,'[22]11 AL 25 ABR-01'!$M$1:$M$65536</definedName>
+    <definedName name="º">'[23] '!$B$3:$B$93</definedName>
+    <definedName name="oficial" hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="OFICIO">'[24] '!$B$3:$B$93</definedName>
+    <definedName name="OO">'[25]Memoria Rte.Fte'!$A$9:$L$29</definedName>
+    <definedName name="ORD">#REF!</definedName>
+    <definedName name="OTS">[26]Hoja1!$K$3:$K$61</definedName>
+    <definedName name="PAZYSALVO">#REF!</definedName>
+    <definedName name="pcb">[12]TARIFAS!$D$179:$D$189</definedName>
+    <definedName name="pco">[12]TARIFAS!$D$195:$D$205</definedName>
+    <definedName name="PERSONALLEGAL">#REF!</definedName>
+    <definedName name="Planta_Oleod">[14]Datos!$C$2:$C$10</definedName>
+    <definedName name="plba">[12]TARIFAS!$D$221:$D$225</definedName>
+    <definedName name="plbs">[12]TARIFAS!$D$211:$D$215</definedName>
+    <definedName name="plva">[12]TARIFAS!$D$242:$D$249</definedName>
+    <definedName name="plvs">[12]TARIFAS!$D$231:$D$236</definedName>
+    <definedName name="PM">#REF!</definedName>
+    <definedName name="POZO" hidden="1">"M:\Datos\PRESUPUESTO Vs GASTOS\DB EJECUCION  PvsG-0SM.mdb"</definedName>
+    <definedName name="PPT" hidden="1">#REF!</definedName>
+    <definedName name="PPTACUM" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="PPTACUMG" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="PRECIO111">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO112">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO113">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO114">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO115">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO116">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO117">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO118">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO119">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO120">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO121">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO122">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO123">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO124">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO125">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO126">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO127">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO128">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO129">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO130">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO131">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO132">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO133">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO134">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO135">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO136">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO137">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO138">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO139">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO140">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO141">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO142">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO143">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO144">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO145">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO146">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO147">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO148">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO149">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO150">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO151">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO152">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO153">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO154">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO155">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO156">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO157">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO158">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO159">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO160">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO161">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO162">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO163">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO164">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO165">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO166">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO167">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO168">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO169">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO170">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO171">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO172">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO173">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO174">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO175">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO176">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO177">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO178">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO179">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO180">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO181">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO182">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO183">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO184">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO185">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO186">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO187">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO188">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO189">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO190">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO191">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO192">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO193">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO194">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO195">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO196">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO197">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO198">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO199">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO200">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO201">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO202">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO203">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO204">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO205">[16]APU!#REF!</definedName>
+    <definedName name="PRECIO206">[16]APU!#REF!</definedName>
+    <definedName name="PRIMERO">#REF!</definedName>
+    <definedName name="PROTECCION">"prestaciones'!$D$23"</definedName>
+    <definedName name="PSWIsControlVisible_0_0" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_1" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_10" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_11" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_12" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_13" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_14" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_15" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_16" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_17" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_18" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_19" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_2" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_20" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_21" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_22" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_23" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_24" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_25" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_26" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_27" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_28" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_29" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_3" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_30" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_31" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_32" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_33" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_34" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_35" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_36" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_37" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_38" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_39" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_4" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_40" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_41" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_42" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_43" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_44" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_45" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_46" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_47" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_48" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_49" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_5" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_50" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_51" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_52" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_53" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_54" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_55" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_56" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_57" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_58" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_59" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_6" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_7" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_8" hidden="1">#REF!</definedName>
+    <definedName name="PSWIsControlVisible_0_9" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_20" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_21" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_22" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_23" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_24" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_25" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_26" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_27" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_28" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_29" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_30" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_31" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_32" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_33" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_34" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_35" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_36" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_37" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_38" hidden="1">#REF!</definedName>
+    <definedName name="PSWList_0_39" hidden="1">#REF!</definedName>
+    <definedName name="PSWSavingCell_0" hidden="1">#REF!</definedName>
+    <definedName name="PSWSeries_0_0_Labels" hidden="1">#REF!</definedName>
+    <definedName name="PSWSeries_0_0_Values" hidden="1">#REF!</definedName>
+    <definedName name="PSWSeries_0_1_Labels" hidden="1">#REF!</definedName>
+    <definedName name="PSWSeries_0_1_Values" hidden="1">#REF!</definedName>
+    <definedName name="PSWSeries_0_2_Values" hidden="1">#REF!</definedName>
+    <definedName name="pue" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="pyg" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGAJ" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="PYGCON" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGCONTABLE" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGCONTBLCRUDO" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGCONTPTO" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGGRCAJ" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGHGRC" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="PYGRC" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="QE" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="qqqqqqqq" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="QR" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="QT" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="QU" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="Quemar">[27]Reporte!$E$8:$AB$17,[27]Reporte!#REF!,[27]Reporte!$E$49:$AB$52,[27]Reporte!$E$59:$AB$59,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!$E$80:$AB$83,[27]Reporte!$E$91:$AB$94,[27]Reporte!$E$96:$AB$98</definedName>
+    <definedName name="Quemar_2">[27]Reporte!$AR$8:$BC$17,[27]Reporte!#REF!,[27]Reporte!$AR$49:$BC$52,[27]Reporte!$AR$59:$BC$59,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!#REF!,[27]Reporte!$AR$80:$BC$83,[27]Reporte!$AR$91:$BC$94,[27]Reporte!$AR$96:$BC$98</definedName>
+    <definedName name="QW" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="RE" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="REGISTROF14">#REF!</definedName>
+    <definedName name="REND111">[16]APU!#REF!</definedName>
+    <definedName name="REND112">[16]APU!#REF!</definedName>
+    <definedName name="REND113">[16]APU!#REF!</definedName>
+    <definedName name="REND114">[16]APU!#REF!</definedName>
+    <definedName name="REND115">[16]APU!#REF!</definedName>
+    <definedName name="REND116">[16]APU!#REF!</definedName>
+    <definedName name="REND117">[16]APU!#REF!</definedName>
+    <definedName name="REND118">[16]APU!#REF!</definedName>
+    <definedName name="REND119">[16]APU!#REF!</definedName>
+    <definedName name="REND120">[16]APU!#REF!</definedName>
+    <definedName name="REND121">[16]APU!#REF!</definedName>
+    <definedName name="REND122">[16]APU!#REF!</definedName>
+    <definedName name="REND123">[16]APU!#REF!</definedName>
+    <definedName name="REND124">[16]APU!#REF!</definedName>
+    <definedName name="REND125">[16]APU!#REF!</definedName>
+    <definedName name="REND126">[16]APU!#REF!</definedName>
+    <definedName name="REND127">[16]APU!#REF!</definedName>
+    <definedName name="REND128">[16]APU!#REF!</definedName>
+    <definedName name="REND129">[16]APU!#REF!</definedName>
+    <definedName name="REND130">[16]APU!#REF!</definedName>
+    <definedName name="REND131">[16]APU!#REF!</definedName>
+    <definedName name="REND132">[16]APU!#REF!</definedName>
+    <definedName name="REND133">[16]APU!#REF!</definedName>
+    <definedName name="REND134">[16]APU!#REF!</definedName>
+    <definedName name="REND135">[16]APU!#REF!</definedName>
+    <definedName name="REND136">[16]APU!#REF!</definedName>
+    <definedName name="REND137">[16]APU!#REF!</definedName>
+    <definedName name="REND138">[16]APU!#REF!</definedName>
+    <definedName name="REND139">[16]APU!#REF!</definedName>
+    <definedName name="REND140">[16]APU!#REF!</definedName>
+    <definedName name="REND141">[16]APU!#REF!</definedName>
+    <definedName name="REND142">[16]APU!#REF!</definedName>
+    <definedName name="REND143">[16]APU!#REF!</definedName>
+    <definedName name="REND144">[16]APU!#REF!</definedName>
+    <definedName name="REND145">[16]APU!#REF!</definedName>
+    <definedName name="REND146">[16]APU!#REF!</definedName>
+    <definedName name="REND147">[16]APU!#REF!</definedName>
+    <definedName name="REND148">[16]APU!#REF!</definedName>
+    <definedName name="REND149">[16]APU!#REF!</definedName>
+    <definedName name="REND150">[16]APU!#REF!</definedName>
+    <definedName name="REND151">[16]APU!#REF!</definedName>
+    <definedName name="REND152">[16]APU!#REF!</definedName>
+    <definedName name="REND153">[16]APU!#REF!</definedName>
+    <definedName name="REND154">[16]APU!#REF!</definedName>
+    <definedName name="REND155">[16]APU!#REF!</definedName>
+    <definedName name="REND156">[16]APU!#REF!</definedName>
+    <definedName name="REND157">[16]APU!#REF!</definedName>
+    <definedName name="REND158">[16]APU!#REF!</definedName>
+    <definedName name="REND159">[16]APU!#REF!</definedName>
+    <definedName name="REND160">[16]APU!#REF!</definedName>
+    <definedName name="REND161">[16]APU!#REF!</definedName>
+    <definedName name="REND162">[16]APU!#REF!</definedName>
+    <definedName name="REND163">[16]APU!#REF!</definedName>
+    <definedName name="REND164">[16]APU!#REF!</definedName>
+    <definedName name="REND165">[16]APU!#REF!</definedName>
+    <definedName name="REND166">[16]APU!#REF!</definedName>
+    <definedName name="REND167">[16]APU!#REF!</definedName>
+    <definedName name="REND168">[16]APU!#REF!</definedName>
+    <definedName name="REND169">[16]APU!#REF!</definedName>
+    <definedName name="REND170">[16]APU!#REF!</definedName>
+    <definedName name="REND171">[16]APU!#REF!</definedName>
+    <definedName name="REND172">[16]APU!#REF!</definedName>
+    <definedName name="REND173">[16]APU!#REF!</definedName>
+    <definedName name="REND174">[16]APU!#REF!</definedName>
+    <definedName name="REND175">[16]APU!#REF!</definedName>
+    <definedName name="REND176">[16]APU!#REF!</definedName>
+    <definedName name="REND177">[16]APU!#REF!</definedName>
+    <definedName name="REND178">[16]APU!#REF!</definedName>
+    <definedName name="REND179">[16]APU!#REF!</definedName>
+    <definedName name="REND180">[16]APU!#REF!</definedName>
+    <definedName name="REND181">[16]APU!#REF!</definedName>
+    <definedName name="REND182">[16]APU!#REF!</definedName>
+    <definedName name="REND183">[16]APU!#REF!</definedName>
+    <definedName name="REND184">[16]APU!#REF!</definedName>
+    <definedName name="REND185">[16]APU!#REF!</definedName>
+    <definedName name="REND186">[16]APU!#REF!</definedName>
+    <definedName name="REND187">[16]APU!#REF!</definedName>
+    <definedName name="REND188">[16]APU!#REF!</definedName>
+    <definedName name="REND189">[16]APU!#REF!</definedName>
+    <definedName name="REND190">[16]APU!#REF!</definedName>
+    <definedName name="REND191">[16]APU!#REF!</definedName>
+    <definedName name="REND192">[16]APU!#REF!</definedName>
+    <definedName name="REND193">[16]APU!#REF!</definedName>
+    <definedName name="REND194">[16]APU!#REF!</definedName>
+    <definedName name="REND195">[16]APU!#REF!</definedName>
+    <definedName name="REND196">[16]APU!#REF!</definedName>
+    <definedName name="REND197">[16]APU!#REF!</definedName>
+    <definedName name="REND198">[16]APU!#REF!</definedName>
+    <definedName name="REND199">[16]APU!#REF!</definedName>
+    <definedName name="REND200">[16]APU!#REF!</definedName>
+    <definedName name="REND201">[16]APU!#REF!</definedName>
+    <definedName name="REND202">[16]APU!#REF!</definedName>
+    <definedName name="REND203">[16]APU!#REF!</definedName>
+    <definedName name="REND204">[16]APU!#REF!</definedName>
+    <definedName name="REND205">[16]APU!#REF!</definedName>
+    <definedName name="REND206">[16]APU!#REF!</definedName>
+    <definedName name="REQUISICION">#REF!</definedName>
+    <definedName name="rerererere" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="RESUME">#REF!</definedName>
+    <definedName name="RESUMEN">#REF!</definedName>
+    <definedName name="RETR" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="Rót_Listas_Pers">[20]Listas!$A$1:$I$1</definedName>
+    <definedName name="Rótulos_Listas">[28]Listas!$A$1:$I$1</definedName>
+    <definedName name="RR" hidden="1">[29]DATOS!#REF!</definedName>
+    <definedName name="S" hidden="1">#REF!</definedName>
+    <definedName name="SAAA" hidden="1">#REF!</definedName>
+    <definedName name="SALARIOMINIMO">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="sdg" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="sdgsg" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="SDS" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="SEE">#REF!</definedName>
+    <definedName name="SEG">#REF!</definedName>
+    <definedName name="SEGISS">#REF!</definedName>
+    <definedName name="SELECCIONEPSAFP">#REF!</definedName>
+    <definedName name="sgsg" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="sgsgs" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="shshsh" hidden="1">[3]DATOS!#REF!</definedName>
+    <definedName name="SINMEDFAM">#REF!</definedName>
+    <definedName name="SOLICITUDLIQUIDACION">#REF!</definedName>
+    <definedName name="SQC" hidden="1">{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}</definedName>
+    <definedName name="SQC." hidden="1">{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}</definedName>
+    <definedName name="SS">#REF!</definedName>
+    <definedName name="SSA">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="sss">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="ssss">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="SSSSSSSSSSSSSSSS">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="SUBSALIMENT">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="SUBSIHABITACION">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="SUBSITRANSP">#REF!</definedName>
+    <definedName name="SUBTRANS">#REF!</definedName>
+    <definedName name="T" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="TABLA">'[30]Rte-Fte-99'!#REF!</definedName>
+    <definedName name="TariCiud">[31]TariCiud!$A$5:$A$24</definedName>
+    <definedName name="TARIFAS">[32]RESUMEN!$A$12:$F$526</definedName>
+    <definedName name="Tarifas_2011">[21]Tarifas2011!$A$3:$D$175</definedName>
+    <definedName name="TBANCOS">[30]BANCOS!$A$4:$C$50</definedName>
+    <definedName name="TCARGOS">[30]CARGOS!$A$4:$C$260</definedName>
+    <definedName name="Telefono">'[17]Inf-Empresa'!$AA$16</definedName>
+    <definedName name="TEPS">[30]EPS!$A$4:$B$50</definedName>
+    <definedName name="TIPO_DE_MANTTO">#REF!</definedName>
+    <definedName name="Tipo_Proced">[33]Datos!$B$2:$B$9</definedName>
+    <definedName name="TITLE">#REF!</definedName>
+    <definedName name="TODO">#REF!</definedName>
+    <definedName name="TOTA">#REF!</definedName>
+    <definedName name="totaleb">#REF!</definedName>
+    <definedName name="totaleo">#REF!</definedName>
+    <definedName name="totalpb">#REF!</definedName>
+    <definedName name="totalpbas">#REF!</definedName>
+    <definedName name="totalpo">#REF!</definedName>
+    <definedName name="totalviatic">#REF!</definedName>
+    <definedName name="TotCa">'[17]Listado de Entrega'!$J$20</definedName>
+    <definedName name="TotJe">'[17]Listado de Entrega'!$K$20</definedName>
+    <definedName name="TotOt">'[17]Listado de Entrega'!$L$20</definedName>
+    <definedName name="TotPa">'[17]Listado de Entrega'!$I$20</definedName>
+    <definedName name="TPENSIONES">[30]PENSIONES!$A$4:$B$50</definedName>
+    <definedName name="TR" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="transporte">#REF!</definedName>
+    <definedName name="TRIM">'[17]Indicador DF'!$H$7</definedName>
+    <definedName name="TYTY" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="UNIDAD111">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD112">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD113">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD114">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD115">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD116">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD117">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD118">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD119">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD120">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD121">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD122">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD123">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD124">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD125">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD126">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD127">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD128">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD129">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD130">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD131">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD132">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD133">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD134">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD135">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD136">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD137">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD138">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD139">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD140">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD141">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD142">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD143">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD144">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD145">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD146">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD147">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD148">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD149">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD150">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD151">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD152">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD153">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD154">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD155">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD156">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD157">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD158">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD159">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD160">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD161">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD162">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD163">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD164">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD165">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD166">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD167">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD168">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD169">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD170">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD171">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD172">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD173">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD174">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD175">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD176">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD177">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD178">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD179">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD180">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD181">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD182">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD183">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD184">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD185">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD186">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD187">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD188">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD189">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD190">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD191">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD192">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD193">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD194">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD195">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD196">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD197">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD198">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD199">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD200">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD201">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD202">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD203">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD204">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD205">[16]ITEMS!#REF!</definedName>
+    <definedName name="UNIDAD206">[16]ITEMS!#REF!</definedName>
+    <definedName name="Utilidad">#REF!</definedName>
+    <definedName name="UYYUYU" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="VEHICULOS">#REF!</definedName>
+    <definedName name="VHGF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="VIATICOS">'[1]SALARIO LEGAL'!#REF!</definedName>
+    <definedName name="VOY">#REF!</definedName>
+    <definedName name="vvvvvv" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="W">#REF!</definedName>
+    <definedName name="wacc" hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="WQ" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="WQW" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="wrn.ANEXO1." hidden="1">{#N/A,#N/A,FALSE,"Costos Contables CIB A 12 1994";#N/A,#N/A,FALSE,"Cuadre Contab. y C. OP"}</definedName>
+    <definedName name="wrn.anexo5." hidden="1">{#N/A,#N/A,FALSE,"CIBHA05A";#N/A,#N/A,FALSE,"CIBHA05B"}</definedName>
+    <definedName name="wrn.anexo6." hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="wrn.CAR." hidden="1">{#N/A,#N/A,FALSE,"a1";#N/A,#N/A,FALSE,"a2";#N/A,#N/A,FALSE,"a3";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"a4D";#N/A,#N/A,FALSE,"A5a ";#N/A,#N/A,FALSE,"A5b";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6B";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"A6D";#N/A,#N/A,FALSE,"INV"}</definedName>
+    <definedName name="wrn.CIB." hidden="1">{#N/A,#N/A,FALSE,"A1";#N/A,#N/A,FALSE,"A2";#N/A,#N/A,FALSE,"A3";#N/A,#N/A,FALSE,"A4";#N/A,#N/A,FALSE,"a4a";#N/A,#N/A,FALSE,"a4B";#N/A,#N/A,FALSE,"a4C";#N/A,#N/A,FALSE,"A5A";#N/A,#N/A,FALSE,"A5B";#N/A,#N/A,FALSE,"F1F2";#N/A,#N/A,FALSE,"MP";#N/A,#N/A,FALSE,"MP A PCTOS";#N/A,#N/A,FALSE,"A6A";#N/A,#N/A,FALSE,"A6C";#N/A,#N/A,FALSE,"REND";"CRUDOS",#N/A,FALSE,"INVENTARIO";"PRODUCTOS",#N/A,FALSE,"INVENTARIO"}</definedName>
+    <definedName name="wrn.civil._.works." hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="wrn.FORMATOS." hidden="1">{#N/A,#N/A,FALSE,"Formato No.2 ";#N/A,#N/A,FALSE,"Formato No.3A";#N/A,#N/A,FALSE,"Formato No. 3B";#N/A,#N/A,FALSE,"Formato No. 3C";#N/A,#N/A,FALSE,"Formato No. 4A";#N/A,#N/A,FALSE,"Formato No. 4B";#N/A,#N/A,FALSE,"Formato No. 4C (1)";#N/A,#N/A,FALSE,"Formato No. 4C (2)";#N/A,#N/A,FALSE,"Formato No. 4D";#N/A,#N/A,FALSE,"Formato No. 7 ";#N/A,#N/A,FALSE,"Formato No. 8";#N/A,#N/A,FALSE,"Formato No. 9";#N/A,#N/A,FALSE,"Formato No. 10";#N/A,#N/A,FALSE,"Formato No. 11";#N/A,#N/A,FALSE,"Formato No. 12";#N/A,#N/A,FALSE,"Formato No. 13";#N/A,#N/A,FALSE,"Formato No. 14";#N/A,#N/A,FALSE,"Formato No. 15 ";#N/A,#N/A,FALSE,"Formato No. 16";#N/A,#N/A,FALSE,"Formato No. 17";#N/A,#N/A,FALSE,"Formato No. 18";#N/A,#N/A,FALSE,"Formato No. 19"}</definedName>
+    <definedName name="wrn.GERENCIA." hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
+    <definedName name="wrn.INF_DIARIO." hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="wrn.INFOCIB." hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="wrn.Julio._.052000." hidden="1">{#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades";#N/A,#N/A,FALSE,"nuevo formato actividades"}</definedName>
+    <definedName name="wrn.PRODUCCION._.SOACHA." hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="wrn.PRU_1." hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="wrn.Resumen." hidden="1">{#N/A,#N/A,FALSE,"Hoja1";#N/A,#N/A,FALSE,"Hoja2"}</definedName>
+    <definedName name="wrn.SOACHA." hidden="1">{#N/A,#N/A,FALSE,"SOACHA"}</definedName>
+    <definedName name="wrn.SUP._.1." hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="wrn.SUPER." hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="wwn.infocib" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="X">#REF!</definedName>
+    <definedName name="xbxb" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="XSW" hidden="1">{#N/A,#N/A,TRUE,"1842CWN0"}</definedName>
+    <definedName name="xvxv" hidden="1">[4]DATOS!#REF!</definedName>
+    <definedName name="xx" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="xxx" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="XXXX" hidden="1">#REF!</definedName>
+    <definedName name="xxxxx" hidden="1">{#N/A,#N/A,FALSE,"VOL695";#N/A,#N/A,FALSE,"anexo1";#N/A,#N/A,FALSE,"anexo2";#N/A,#N/A,FALSE,"anexo3";#N/A,#N/A,FALSE,"anexo4";#N/A,#N/A,FALSE,"anexo5a";#N/A,#N/A,FALSE,"anexo5b";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6a";#N/A,#N/A,FALSE,"anexo6c";#N/A,#N/A,FALSE,"anexo7a";#N/A,#N/A,FALSE,"anexo7b";#N/A,#N/A,FALSE,"anexo7c"}</definedName>
+    <definedName name="XXXXXXXX" hidden="1">[34]DATOS!#REF!</definedName>
+    <definedName name="XXXXXXXXXXXXXXXX" hidden="1">[34]DATOS!#REF!</definedName>
+    <definedName name="XZS" hidden="1">#REF!</definedName>
+    <definedName name="YUTREFSF" hidden="1">{#N/A,#N/A,FALSE,"PERSONAL"}</definedName>
+    <definedName name="yyyyy" hidden="1">{#N/A,#N/A,FALSE,"Costos Productos 6A";#N/A,#N/A,FALSE,"Costo Unitario Total H-94-12"}</definedName>
+    <definedName name="ZAQ" hidden="1">{#N/A,#N/A,TRUE,"INGENIERIA";#N/A,#N/A,TRUE,"COMPRAS";#N/A,#N/A,TRUE,"DIRECCION";#N/A,#N/A,TRUE,"RESUMEN"}</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t xml:space="preserve">CONSORCIO PIPELINE MAINTENANCE ALLIANCE</t>
+    <t>CONSORCIO PIPELINE MAINTENANCE ALLIANCE</t>
   </si>
   <si>
-    <t xml:space="preserve">RELACIÓN DE CAUSACIÓN DE VIÁTICOS CANCELADOS AL PERSONAL</t>
+    <t>RELACIÓN DE CAUSACIÓN DE VIÁTICOS CANCELADOS AL PERSONAL</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA INICIAL  </t>
   </si>
   <si>
-    <t xml:space="preserve">RELACIÓN</t>
+    <t>RELACIÓN</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA FINAL  </t>
   </si>
   <si>
-    <t xml:space="preserve">No.</t>
+    <t>No.</t>
   </si>
   <si>
-    <t xml:space="preserve">VALOR SALARIAL</t>
+    <t>VALOR SALARIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSECUTIVO</t>
+    <t>CONSECUTIVO</t>
   </si>
   <si>
-    <t xml:space="preserve">CÉDULA</t>
+    <t>CÉDULA</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMBRE Y APELLIDO</t>
+    <t>NOMBRE Y APELLIDO</t>
   </si>
   <si>
-    <t xml:space="preserve">CARGO</t>
+    <t>CARGO</t>
   </si>
   <si>
-    <t xml:space="preserve">SUCURSAL</t>
+    <t>SUCURSAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA INICIAL</t>
+    <t>FECHA INICIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA FINAL</t>
+    <t>FECHA FINAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ORDEN DE TRABAJO</t>
+    <t>ORDEN DE TRABAJO</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL DÍAS</t>
+    <t>TOTAL DÍAS</t>
   </si>
   <si>
-    <t xml:space="preserve">CALCULA INC SALARIAL</t>
+    <t>CALCULA INC SALARIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DCTO SALDO ANTIC A VIÁTICOS</t>
+    <t>DCTO SALDO ANTIC A VIÁTICOS</t>
   </si>
   <si>
-    <t xml:space="preserve">DCTO AUX ALIMENTACIÓN</t>
+    <t>DCTO AUX ALIMENTACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">DCTO AUX TRANSPORTE</t>
+    <t>DCTO AUX TRANSPORTE</t>
   </si>
   <si>
-    <t xml:space="preserve">VR VIÁTICO PERMANENTE (Salarial)</t>
+    <t>VR VIÁTICO PERMANENTE (Salarial)</t>
   </si>
   <si>
-    <t xml:space="preserve">VR VIÁTICO OCASIONAL (No Salarial)</t>
+    <t>VR VIÁTICO OCASIONAL (No Salarial)</t>
   </si>
   <si>
-    <t xml:space="preserve">BASE :</t>
+    <t>BASE :</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTRATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/09/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA-0032889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVA-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVA-6-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1116240094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS EDUARDO BARAHONA YUSTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANALISTA TIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1098001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/08/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/08/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssssss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 279.373,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 139.062,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ -215.937,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 0,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVA-3-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/07/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/07/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMM-XYZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 507.807,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 313.058,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 787.180,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ 452.120,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1082778631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enuar Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMA</t>
+    <t>CONTRATO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2186,7 +2086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2324,66 +2224,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,7 +2256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2416,26 +2274,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2451,12 +2309,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2465,11 +2317,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2499,7 +2351,7 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
+        <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
@@ -2542,8 +2394,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen 2004-2006"/>
       <sheetName val="Formul 2004"/>
@@ -2685,8 +2537,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Var Intake GRM Leona, Mesa"/>
       <sheetName val="140 kbbld Leona, Mesa"/>
@@ -2766,7 +2618,7 @@
       <sheetName val="Base"/>
       <sheetName val="VPN- ECP"/>
       <sheetName val="Cuentas"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -2978,8 +2830,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val=" "/>
       <sheetName val="relviat"/>
@@ -2993,8 +2845,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fechas"/>
       <sheetName val="Informacion"/>
@@ -3093,7 +2945,7 @@
         </row>
         <row r="30">
           <cell r="D30" t="str">
-            <v>Lleno con material de río </v>
+            <v xml:space="preserve">Lleno con material de río </v>
           </cell>
         </row>
         <row r="31">
@@ -3198,7 +3050,7 @@
         </row>
         <row r="51">
           <cell r="D51" t="str">
-            <v>Aplicación mecánica de recubrimiento </v>
+            <v xml:space="preserve">Aplicación mecánica de recubrimiento </v>
           </cell>
         </row>
         <row r="52">
@@ -3238,7 +3090,7 @@
         </row>
         <row r="59">
           <cell r="D59" t="str">
-            <v>Manejo integral de residuos líquidos peligrosos </v>
+            <v xml:space="preserve">Manejo integral de residuos líquidos peligrosos </v>
           </cell>
         </row>
         <row r="60">
@@ -3343,7 +3195,7 @@
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>Elaboración de camisa de diámetro  10"-16", espesor menor o igual 0.375" </v>
+            <v xml:space="preserve">Elaboración de camisa de diámetro  10"-16", espesor menor o igual 0.375" </v>
           </cell>
         </row>
         <row r="81">
@@ -3353,7 +3205,7 @@
         </row>
         <row r="82">
           <cell r="D82" t="str">
-            <v>Elaboración de camisa de diámetro  18"-24", espesor menor o igual 0.500" </v>
+            <v xml:space="preserve">Elaboración de camisa de diámetro  18"-24", espesor menor o igual 0.500" </v>
           </cell>
         </row>
         <row r="83">
@@ -3418,7 +3270,7 @@
         </row>
         <row r="95">
           <cell r="D95" t="str">
-            <v>Registro fotografico </v>
+            <v xml:space="preserve">Registro fotografico </v>
           </cell>
         </row>
         <row r="96">
@@ -3608,7 +3460,7 @@
         </row>
         <row r="133">
           <cell r="D133" t="str">
-            <v>Instalación de soportes para los ductos y accesorios en las líneas y estaciones </v>
+            <v xml:space="preserve">Instalación de soportes para los ductos y accesorios en las líneas y estaciones </v>
           </cell>
         </row>
         <row r="134">
@@ -3763,7 +3615,7 @@
         </row>
         <row r="164">
           <cell r="D164" t="str">
-            <v>Instalacion, atrq. Tub. De PVC 24" </v>
+            <v xml:space="preserve">Instalacion, atrq. Tub. De PVC 24" </v>
           </cell>
         </row>
         <row r="165">
@@ -3773,7 +3625,7 @@
         </row>
         <row r="166">
           <cell r="D166" t="str">
-            <v>Colocación de concreto de 3000 psi </v>
+            <v xml:space="preserve">Colocación de concreto de 3000 psi </v>
           </cell>
         </row>
         <row r="167">
@@ -3793,7 +3645,7 @@
         </row>
         <row r="170">
           <cell r="D170" t="str">
-            <v>Trincho metálico tubería 6" </v>
+            <v xml:space="preserve">Trincho metálico tubería 6" </v>
           </cell>
         </row>
         <row r="171">
@@ -3843,7 +3695,7 @@
         </row>
         <row r="187">
           <cell r="D187" t="str">
-            <v> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
+            <v xml:space="preserve"> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
           </cell>
         </row>
         <row r="188">
@@ -3898,7 +3750,7 @@
         </row>
         <row r="203">
           <cell r="D203" t="str">
-            <v> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
+            <v xml:space="preserve"> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
           </cell>
         </row>
         <row r="204">
@@ -3963,22 +3815,22 @@
         </row>
         <row r="231">
           <cell r="D231" t="str">
-            <v>Profesional Senior Nivel XI </v>
+            <v xml:space="preserve">Profesional Senior Nivel XI </v>
           </cell>
         </row>
         <row r="232">
           <cell r="D232" t="str">
-            <v>Profesional Pleno Nivel X </v>
+            <v xml:space="preserve">Profesional Pleno Nivel X </v>
           </cell>
         </row>
         <row r="233">
           <cell r="D233" t="str">
-            <v>Profesional Junior Nivel IX </v>
+            <v xml:space="preserve">Profesional Junior Nivel IX </v>
           </cell>
         </row>
         <row r="234">
           <cell r="D234" t="str">
-            <v>Profesional Entrenamiento Nivel VIII </v>
+            <v xml:space="preserve">Profesional Entrenamiento Nivel VIII </v>
           </cell>
         </row>
         <row r="235">
@@ -3993,12 +3845,12 @@
         </row>
         <row r="242">
           <cell r="D242" t="str">
-            <v>Técnico Operativo I Nivel VII </v>
+            <v xml:space="preserve">Técnico Operativo I Nivel VII </v>
           </cell>
         </row>
         <row r="243">
           <cell r="D243" t="str">
-            <v>Técnico Operativo II Nivel VI </v>
+            <v xml:space="preserve">Técnico Operativo II Nivel VI </v>
           </cell>
         </row>
         <row r="244">
@@ -4108,7 +3960,7 @@
         </row>
         <row r="272">
           <cell r="D272" t="str">
-            <v>Elementos Especiales De Seguridad Industrial Para El Personal </v>
+            <v xml:space="preserve">Elementos Especiales De Seguridad Industrial Para El Personal </v>
           </cell>
         </row>
         <row r="273">
@@ -4138,12 +3990,12 @@
         </row>
         <row r="278">
           <cell r="D278" t="str">
-            <v>Grúa Telescópica De 40 Toneladas, Con Operador </v>
+            <v xml:space="preserve">Grúa Telescópica De 40 Toneladas, Con Operador </v>
           </cell>
         </row>
         <row r="279">
           <cell r="D279" t="str">
-            <v>Grúa Telescópica De 80 Toneladas, Con Operador </v>
+            <v xml:space="preserve">Grúa Telescópica De 80 Toneladas, Con Operador </v>
           </cell>
         </row>
         <row r="280">
@@ -5465,8 +5317,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
       <sheetName val="ReporteLimpio"/>
@@ -5544,8 +5396,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
       <sheetName val="ReporteLimpio"/>
@@ -5712,8 +5564,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS"/>
       <sheetName val="Crudos"/>
@@ -6190,7 +6042,7 @@
       <sheetName val="Datos no borrar"/>
       <sheetName val="Mov. Tks-380"/>
       <sheetName val="Pilares e iniciativas"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -6735,8 +6587,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control costos"/>
       <sheetName val="salarios"/>
@@ -6768,8 +6620,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabla1"/>
       <sheetName val="Tabla2"/>
@@ -7001,8 +6853,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen Presup SE PPAL"/>
       <sheetName val="Presupuesto SE PPAL"/>
@@ -7097,7 +6949,7 @@
         </row>
         <row r="178">
           <cell r="I178" t="str">
-            <v>VIATICOS </v>
+            <v xml:space="preserve">VIATICOS </v>
           </cell>
         </row>
         <row r="179">
@@ -7153,8 +7005,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Informacion"/>
       <sheetName val="RESUMEN"/>
@@ -7275,8 +7127,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Presupuesto"/>
       <sheetName val="Precios Unitarios"/>
@@ -7450,8 +7302,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Reporte"/>
       <sheetName val="Hoja1"/>
@@ -8593,7 +8445,7 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>Enith Viviana Gonzalez </v>
+            <v xml:space="preserve">Enith Viviana Gonzalez </v>
           </cell>
           <cell r="B51" t="str">
             <v>Profesional Ambiental</v>
@@ -8780,7 +8632,7 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>Fredy maldonado </v>
+            <v xml:space="preserve">Fredy maldonado </v>
           </cell>
           <cell r="B59" t="str">
             <v>Mant. Sup. Elect. D9</v>
@@ -9469,7 +9321,7 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>Jimmy Leonardo Rodriguez </v>
+            <v xml:space="preserve">Jimmy Leonardo Rodriguez </v>
           </cell>
           <cell r="B90" t="str">
             <v>Oficial</v>
@@ -10028,7 +9880,7 @@
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>Luis Alberto Becerra </v>
+            <v xml:space="preserve">Luis Alberto Becerra </v>
           </cell>
           <cell r="B116" t="str">
             <v>Mant. Sup. Inst. B4</v>
@@ -10693,7 +10545,7 @@
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>Osmed Marroquin </v>
+            <v xml:space="preserve">Osmed Marroquin </v>
           </cell>
           <cell r="B150" t="str">
             <v>Mant. Sup. Mec. B4</v>
@@ -10776,7 +10628,7 @@
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>Pedro Antonio Bernal </v>
+            <v xml:space="preserve">Pedro Antonio Bernal </v>
           </cell>
           <cell r="B154" t="str">
             <v>Mant. Sup. Mec. B4</v>
@@ -11543,8 +11395,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="REPORTE DIARIO"/>
       <sheetName val="Hoja5"/>
@@ -11740,7 +11592,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Bladimir Calderon </v>
+            <v xml:space="preserve">Bladimir Calderon </v>
           </cell>
         </row>
         <row r="30">
@@ -11775,7 +11627,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>Carlos Andres Rodriguez </v>
+            <v xml:space="preserve">Carlos Andres Rodriguez </v>
           </cell>
         </row>
         <row r="37">
@@ -12035,7 +11887,7 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>Enith Viviana Gonzalez </v>
+            <v xml:space="preserve">Enith Viviana Gonzalez </v>
           </cell>
         </row>
         <row r="89">
@@ -12115,7 +11967,7 @@
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>Fredy maldonado </v>
+            <v xml:space="preserve">Fredy maldonado </v>
           </cell>
         </row>
         <row r="105">
@@ -12350,12 +12202,12 @@
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>Jhony Romero Pulido </v>
+            <v xml:space="preserve">Jhony Romero Pulido </v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>Jimmy Leonardo Rodriguez </v>
+            <v xml:space="preserve">Jimmy Leonardo Rodriguez </v>
           </cell>
         </row>
         <row r="153">
@@ -12435,7 +12287,7 @@
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>Jose Enrrique Hernandez </v>
+            <v xml:space="preserve">Jose Enrrique Hernandez </v>
           </cell>
         </row>
         <row r="169">
@@ -12625,7 +12477,7 @@
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>Luis Alberto Becerra </v>
+            <v xml:space="preserve">Luis Alberto Becerra </v>
           </cell>
         </row>
         <row r="207">
@@ -12915,7 +12767,7 @@
         </row>
         <row r="264">
           <cell r="A264" t="str">
-            <v>Osmed Marroquin </v>
+            <v xml:space="preserve">Osmed Marroquin </v>
           </cell>
         </row>
         <row r="265">
@@ -12955,7 +12807,7 @@
         </row>
         <row r="272">
           <cell r="A272" t="str">
-            <v>Pedro Antonio Bernal </v>
+            <v xml:space="preserve">Pedro Antonio Bernal </v>
           </cell>
         </row>
         <row r="273">
@@ -13392,7 +13244,7 @@
             <v>1.4</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Lleno con material de río </v>
+            <v xml:space="preserve">Lleno con material de río </v>
           </cell>
           <cell r="C12" t="str">
             <v>M3</v>
@@ -13504,7 +13356,7 @@
             <v>1.8</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Suministro y colocación de concreto de 3000 psi </v>
+            <v xml:space="preserve">Suministro y colocación de concreto de 3000 psi </v>
           </cell>
           <cell r="C20" t="str">
             <v>M3</v>
@@ -13854,7 +13706,7 @@
             <v>1.20.7</v>
           </cell>
           <cell r="B45" t="str">
-            <v>Pintura de tubería aérea, mantenimiento preventivo altos sólidos, Diámetro 14" a 16" </v>
+            <v xml:space="preserve">Pintura de tubería aérea, mantenimiento preventivo altos sólidos, Diámetro 14" a 16" </v>
           </cell>
           <cell r="C45" t="str">
             <v>M2</v>
@@ -14162,7 +14014,7 @@
             <v>1.34.4</v>
           </cell>
           <cell r="B67" t="str">
-            <v>Diámetro 14" a 16" </v>
+            <v xml:space="preserve">Diámetro 14" a 16" </v>
           </cell>
           <cell r="C67" t="str">
             <v>M2</v>
@@ -14736,7 +14588,7 @@
             <v>2.3.4</v>
           </cell>
           <cell r="B108" t="str">
-            <v>Profesional Residente </v>
+            <v xml:space="preserve">Profesional Residente </v>
           </cell>
           <cell r="C108" t="str">
             <v>Día</v>
@@ -14890,7 +14742,7 @@
             <v>2.4.6</v>
           </cell>
           <cell r="B119" t="str">
-            <v>Pintor </v>
+            <v xml:space="preserve">Pintor </v>
           </cell>
           <cell r="C119" t="str">
             <v>Día</v>
@@ -14904,7 +14756,7 @@
             <v>2.4.7</v>
           </cell>
           <cell r="B120" t="str">
-            <v>Albañil </v>
+            <v xml:space="preserve">Albañil </v>
           </cell>
           <cell r="C120" t="str">
             <v>Día</v>
@@ -15058,7 +14910,7 @@
             <v>3.1.2</v>
           </cell>
           <cell r="B131" t="str">
-            <v>Elementos especiales de seguridad industrial para el personal </v>
+            <v xml:space="preserve">Elementos especiales de seguridad industrial para el personal </v>
           </cell>
           <cell r="C131" t="str">
             <v>Día</v>
@@ -15170,7 +15022,7 @@
             <v>3.1.10</v>
           </cell>
           <cell r="B139" t="str">
-            <v>Vehículo 4x4 doble cabina con platon con conductor legal </v>
+            <v xml:space="preserve">Vehículo 4x4 doble cabina con platon con conductor legal </v>
           </cell>
           <cell r="C139" t="str">
             <v>Día</v>
@@ -15646,7 +15498,7 @@
             <v>3.2.33</v>
           </cell>
           <cell r="B173" t="str">
-            <v>Vehículo 4x4 doble cabina con platon con conductor legal </v>
+            <v xml:space="preserve">Vehículo 4x4 doble cabina con platon con conductor legal </v>
           </cell>
           <cell r="C173" t="str">
             <v>Día</v>
@@ -15660,7 +15512,7 @@
             <v>2.5.122</v>
           </cell>
           <cell r="B174" t="str">
-            <v>Vehículo 4x4 doble cabina con platon con conductor legal </v>
+            <v xml:space="preserve">Vehículo 4x4 doble cabina con platon con conductor legal </v>
           </cell>
           <cell r="C174" t="str">
             <v>Día</v>
@@ -15692,8 +15544,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Memoria Rte.Fte"/>
       <sheetName val="Tabla Rte.Fte."/>
@@ -15777,8 +15629,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INFORME MO CONTRATISTAS"/>
       <sheetName val=" "/>
@@ -15878,7 +15730,7 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Auxiliar de mantenimiento </v>
+            <v xml:space="preserve">Auxiliar de mantenimiento </v>
           </cell>
         </row>
         <row r="22">
@@ -15978,7 +15830,7 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Director de Interventoría </v>
+            <v xml:space="preserve">Director de Interventoría </v>
           </cell>
         </row>
         <row r="42">
@@ -16248,8 +16100,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INFORME MO CONTRATISTAS"/>
       <sheetName val=" "/>
@@ -16349,7 +16201,7 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>Auxiliar de mantenimiento </v>
+            <v xml:space="preserve">Auxiliar de mantenimiento </v>
           </cell>
         </row>
         <row r="22">
@@ -16449,7 +16301,7 @@
         </row>
         <row r="41">
           <cell r="B41" t="str">
-            <v>Director de Interventoría </v>
+            <v xml:space="preserve">Director de Interventoría </v>
           </cell>
         </row>
         <row r="42">
@@ -16719,8 +16571,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Memoria Rte.Fte"/>
       <sheetName val=" "/>
@@ -16734,8 +16586,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUMEN"/>
       <sheetName val="PERSONAL"/>
@@ -16999,7 +16851,7 @@
         </row>
         <row r="49">
           <cell r="K49" t="str">
-            <v>PMA-PUE-LIN-001-00-14 </v>
+            <v xml:space="preserve">PMA-PUE-LIN-001-00-14 </v>
           </cell>
         </row>
         <row r="50">
@@ -17009,12 +16861,12 @@
         </row>
         <row r="51">
           <cell r="K51" t="str">
-            <v>PMA-PUE-LIN-001-03-14 </v>
+            <v xml:space="preserve">PMA-PUE-LIN-001-03-14 </v>
           </cell>
         </row>
         <row r="52">
           <cell r="K52" t="str">
-            <v>PMA-PUE-LIN-001-05-14 </v>
+            <v xml:space="preserve">PMA-PUE-LIN-001-05-14 </v>
           </cell>
         </row>
         <row r="53">
@@ -17029,7 +16881,7 @@
         </row>
         <row r="55">
           <cell r="K55" t="str">
-            <v>PMA-PUE-LIN-002-00-14 </v>
+            <v xml:space="preserve">PMA-PUE-LIN-002-00-14 </v>
           </cell>
         </row>
         <row r="56">
@@ -17069,8 +16921,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Reporte"/>
       <sheetName val="Arbol EP"/>
@@ -18667,8 +18519,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
       <sheetName val="ReporteLimpio"/>
@@ -18808,8 +18660,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS"/>
       <sheetName val="VOLUMETR."/>
@@ -19003,7 +18855,7 @@
       <sheetName val="Hoja1"/>
       <sheetName val="LTIFMANT"/>
       <sheetName val="Listas"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -19205,8 +19057,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS"/>
       <sheetName val="GCB2000"/>
@@ -19704,7 +19556,7 @@
       <sheetName val="Mov. Tks-380"/>
       <sheetName val="Pilares e iniciativas"/>
       <sheetName val="Base de Datos"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -20390,8 +20242,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="QAQC-PR23-F9"/>
       <sheetName val="EPS"/>
@@ -22529,7 +22381,7 @@
             <v>181</v>
           </cell>
           <cell r="B85" t="str">
-            <v>COCINERO II </v>
+            <v xml:space="preserve">COCINERO II </v>
           </cell>
           <cell r="C85">
             <v>4</v>
@@ -23442,8 +23294,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sucur1"/>
       <sheetName val="PersActi"/>
@@ -23575,7 +23427,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v/>
+            <v xml:space="preserve"> </v>
           </cell>
         </row>
       </sheetData>
@@ -23606,8 +23458,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ITEMS"/>
       <sheetName val="RESUMEN"/>
@@ -23911,7 +23763,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Lleno con material de río </v>
+            <v xml:space="preserve">Lleno con material de río </v>
           </cell>
           <cell r="D28" t="str">
             <v>m3</v>
@@ -24268,7 +24120,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C49" t="str">
-            <v>Aplicación mecánica de recubrimiento </v>
+            <v xml:space="preserve">Aplicación mecánica de recubrimiento </v>
           </cell>
           <cell r="D49">
             <v>0</v>
@@ -24404,7 +24256,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C57" t="str">
-            <v>Manejo integral de residuos líquidos peligrosos </v>
+            <v xml:space="preserve">Manejo integral de residuos líquidos peligrosos </v>
           </cell>
           <cell r="D57" t="str">
             <v>gl</v>
@@ -24761,7 +24613,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C78" t="str">
-            <v>Elaboración de camisa de diámetro  10"-16", espesor menor o igual 0.375" </v>
+            <v xml:space="preserve">Elaboración de camisa de diámetro  10"-16", espesor menor o igual 0.375" </v>
           </cell>
           <cell r="D78" t="str">
             <v>m</v>
@@ -24795,7 +24647,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C80" t="str">
-            <v>Elaboración de camisa de diámetro  18"-24", espesor menor o igual 0.500" </v>
+            <v xml:space="preserve">Elaboración de camisa de diámetro  18"-24", espesor menor o igual 0.500" </v>
           </cell>
           <cell r="D80" t="str">
             <v>m</v>
@@ -25016,7 +24868,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C93" t="str">
-            <v>Registro fotografico </v>
+            <v xml:space="preserve">Registro fotografico </v>
           </cell>
           <cell r="D93" t="str">
             <v>km</v>
@@ -25662,7 +25514,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C131" t="str">
-            <v>Instalación de soportes para los ductos y accesorios en las líneas y estaciones </v>
+            <v xml:space="preserve">Instalación de soportes para los ductos y accesorios en las líneas y estaciones </v>
           </cell>
           <cell r="D131" t="str">
             <v>kg</v>
@@ -26189,7 +26041,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C162" t="str">
-            <v>Instalacion, atrq. Tub. De PVC 24" </v>
+            <v xml:space="preserve">Instalacion, atrq. Tub. De PVC 24" </v>
           </cell>
           <cell r="D162" t="str">
             <v>m</v>
@@ -26223,7 +26075,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C164" t="str">
-            <v>Colocación de concreto de 3000 psi </v>
+            <v xml:space="preserve">Colocación de concreto de 3000 psi </v>
           </cell>
           <cell r="D164" t="str">
             <v>m3</v>
@@ -26291,7 +26143,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C168" t="str">
-            <v>Trincho metálico tubería 6" </v>
+            <v xml:space="preserve">Trincho metálico tubería 6" </v>
           </cell>
           <cell r="D168" t="str">
             <v>m</v>
@@ -26370,7 +26222,7 @@
             <v>0</v>
           </cell>
           <cell r="C173" t="str">
-            <v>Personal Convencional básico </v>
+            <v xml:space="preserve">Personal Convencional básico </v>
           </cell>
           <cell r="E173">
             <v>0</v>
@@ -26544,7 +26396,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C182" t="str">
-            <v> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
+            <v xml:space="preserve"> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
           </cell>
           <cell r="D182" t="str">
             <v>Día</v>
@@ -26806,7 +26658,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C196" t="str">
-            <v> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
+            <v xml:space="preserve"> D9 Electricista I, Instrumentista I, Mecánico I, Operador de Grúa de hasta 30 Ton / Retro de Oruga / Sideboom, Pailero I / Tubero I, Soldador I, Buzo Profesional, etc.</v>
           </cell>
           <cell r="D196" t="str">
             <v>Día</v>
@@ -27207,7 +27059,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C218" t="str">
-            <v>Profesional Senior Nivel XI </v>
+            <v xml:space="preserve">Profesional Senior Nivel XI </v>
           </cell>
           <cell r="D218" t="str">
             <v>Día</v>
@@ -27227,7 +27079,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C219" t="str">
-            <v>Profesional Pleno Nivel X </v>
+            <v xml:space="preserve">Profesional Pleno Nivel X </v>
           </cell>
           <cell r="D219" t="str">
             <v>Día</v>
@@ -27247,7 +27099,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C220" t="str">
-            <v>Profesional Junior Nivel IX </v>
+            <v xml:space="preserve">Profesional Junior Nivel IX </v>
           </cell>
           <cell r="D220" t="str">
             <v>Día</v>
@@ -27267,7 +27119,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C221" t="str">
-            <v>Profesional Entrenamiento Nivel VIII </v>
+            <v xml:space="preserve">Profesional Entrenamiento Nivel VIII </v>
           </cell>
           <cell r="D221" t="str">
             <v>Día</v>
@@ -27375,7 +27227,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C227" t="str">
-            <v>Técnico Operativo I Nivel VII </v>
+            <v xml:space="preserve">Técnico Operativo I Nivel VII </v>
           </cell>
           <cell r="D227" t="str">
             <v>Día</v>
@@ -27395,7 +27247,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C228" t="str">
-            <v>Técnico Operativo II Nivel VI </v>
+            <v xml:space="preserve">Técnico Operativo II Nivel VI </v>
           </cell>
           <cell r="D228" t="str">
             <v>Día</v>
@@ -27911,7 +27763,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C255" t="str">
-            <v>Elementos Especiales De Seguridad Industrial Para El Personal </v>
+            <v xml:space="preserve">Elementos Especiales De Seguridad Industrial Para El Personal </v>
           </cell>
           <cell r="D255" t="str">
             <v>Día</v>
@@ -28031,7 +27883,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C261" t="str">
-            <v>Grúa Telescópica De 40 Toneladas, Con Operador </v>
+            <v xml:space="preserve">Grúa Telescópica De 40 Toneladas, Con Operador </v>
           </cell>
           <cell r="D261" t="str">
             <v>Día</v>
@@ -28051,7 +27903,7 @@
             <v>#REF!</v>
           </cell>
           <cell r="C262" t="str">
-            <v>Grúa Telescópica De 80 Toneladas, Con Operador </v>
+            <v xml:space="preserve">Grúa Telescópica De 80 Toneladas, Con Operador </v>
           </cell>
           <cell r="D262" t="str">
             <v>Día</v>
@@ -33340,8 +33192,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
       <sheetName val="ReporteLimpio"/>
@@ -33492,8 +33344,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS"/>
       <sheetName val="GCB2000"/>
@@ -33982,7 +33834,7 @@
       <sheetName val="Base de Datos"/>
       <sheetName val="Hoja4"/>
       <sheetName val="INDICE"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -34617,8 +34469,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS"/>
       <sheetName val="TABLA5"/>
@@ -35110,7 +34962,7 @@
       <sheetName val="Mov. Tks-380"/>
       <sheetName val="Pilares e iniciativas"/>
       <sheetName val="Base de Datos"/>
-      <sheetName/>
+      <sheetName val=""/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -35766,8 +35618,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CRUDOS"/>
       <sheetName val="TABLA5"/>
@@ -35809,8 +35661,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS ENTRADA"/>
       <sheetName val="RESUMEN FORMA"/>
@@ -35984,8 +35836,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7422CW00"/>
       <sheetName val="SABANA"/>
@@ -36007,8 +35859,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rte-Fte-97"/>
       <sheetName val="Formato"/>
@@ -36030,8 +35882,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="perba"/>
       <sheetName val="perop"/>
@@ -36378,7 +36230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -36391,7 +36243,7 @@
       <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="9" customWidth="1"/>
@@ -36405,7 +36257,7 @@
     <col min="11" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="5.25" customHeight="1">
+    <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="13"/>
       <c r="C1" s="16"/>
@@ -36415,7 +36267,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="24.75">
+    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -36425,7 +36277,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
@@ -36433,12 +36285,9 @@
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="4"/>
@@ -36448,22 +36297,15 @@
       <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -36475,18 +36317,14 @@
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:15" ht="6" customHeight="1"/>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+    <row r="6" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K7" s="28" t="s">
         <v>6</v>
       </c>
@@ -36495,7 +36333,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="45">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -36542,3507 +36380,504 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+    <row r="9" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
+    <row r="10" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
+    <row r="11" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
+    <row r="12" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+    <row r="13" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+    <row r="14" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+    <row r="15" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+    <row r="16" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+    <row r="17" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+    <row r="18" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
+    <row r="19" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+    <row r="20" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+    <row r="21" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+    <row r="22" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+    <row r="23" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
+    <row r="24" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
+    <row r="25" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="23"/>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
+    <row r="26" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
+    <row r="27" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
+    <row r="28" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23"/>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
+    <row r="29" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="23"/>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
+    <row r="30" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+    <row r="31" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+    <row r="32" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="23"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+    <row r="33" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="23"/>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
+    <row r="34" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="23"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
+    <row r="35" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
+    <row r="36" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
+    <row r="37" spans="1:15" s="20" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="25"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="36"/>
-    </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-    </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-    </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-    </row>
-    <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-    </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-    </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-    </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-    </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-    </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-    </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="36"/>
-    </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="36"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36"/>
-      <c r="O108" s="36"/>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="36"/>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-    </row>
-    <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="36"/>
-    </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-    </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-    </row>
-    <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-    </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-    </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="36"/>
-      <c r="M119" s="36"/>
-      <c r="N119" s="36"/>
-      <c r="O119" s="36"/>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="36"/>
-      <c r="M120" s="36"/>
-      <c r="N120" s="36"/>
-      <c r="O120" s="36"/>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
-      <c r="N121" s="36"/>
-      <c r="O121" s="36"/>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="36"/>
-      <c r="O122" s="36"/>
-    </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="36"/>
-      <c r="M123" s="36"/>
-      <c r="N123" s="36"/>
-      <c r="O123" s="36"/>
-    </row>
-    <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="36"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="36"/>
-      <c r="M124" s="36"/>
-      <c r="N124" s="36"/>
-      <c r="O124" s="36"/>
-    </row>
-    <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="36"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="36"/>
-      <c r="N125" s="36"/>
-      <c r="O125" s="36"/>
-    </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="36"/>
-      <c r="N126" s="36"/>
-      <c r="O126" s="36"/>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="36"/>
-      <c r="N127" s="36"/>
-      <c r="O127" s="36"/>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-      <c r="L128" s="36"/>
-      <c r="M128" s="36"/>
-      <c r="N128" s="36"/>
-      <c r="O128" s="36"/>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="36"/>
-      <c r="M129" s="36"/>
-      <c r="N129" s="36"/>
-      <c r="O129" s="36"/>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="36"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-      <c r="L130" s="36"/>
-      <c r="M130" s="36"/>
-      <c r="N130" s="36"/>
-      <c r="O130" s="36"/>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
-      <c r="L131" s="36"/>
-      <c r="M131" s="36"/>
-      <c r="N131" s="36"/>
-      <c r="O131" s="36"/>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="36"/>
-      <c r="O132" s="36"/>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="A133" s="36"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="36"/>
-      <c r="N133" s="36"/>
-      <c r="O133" s="36"/>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="36"/>
-      <c r="N134" s="36"/>
-      <c r="O134" s="36"/>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-      <c r="L135" s="36"/>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="36"/>
-      <c r="N137" s="36"/>
-      <c r="O137" s="36"/>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="A138" s="36"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="36"/>
-      <c r="N138" s="36"/>
-      <c r="O138" s="36"/>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
-      <c r="L139" s="36"/>
-      <c r="M139" s="36"/>
-      <c r="N139" s="36"/>
-      <c r="O139" s="36"/>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="36"/>
-      <c r="M140" s="36"/>
-      <c r="N140" s="36"/>
-      <c r="O140" s="36"/>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="A141" s="36"/>
-      <c r="B141" s="36"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-      <c r="L141" s="36"/>
-      <c r="M141" s="36"/>
-      <c r="N141" s="36"/>
-      <c r="O141" s="36"/>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="A142" s="36"/>
-      <c r="B142" s="36"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-      <c r="L142" s="36"/>
-      <c r="M142" s="36"/>
-      <c r="N142" s="36"/>
-      <c r="O142" s="36"/>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-      <c r="L143" s="36"/>
-      <c r="M143" s="36"/>
-      <c r="N143" s="36"/>
-      <c r="O143" s="36"/>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="36"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
-      <c r="L144" s="36"/>
-      <c r="M144" s="36"/>
-      <c r="N144" s="36"/>
-      <c r="O144" s="36"/>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
-      <c r="L145" s="36"/>
-      <c r="M145" s="36"/>
-      <c r="N145" s="36"/>
-      <c r="O145" s="36"/>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
-      <c r="L146" s="36"/>
-      <c r="M146" s="36"/>
-      <c r="N146" s="36"/>
-      <c r="O146" s="36"/>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-      <c r="L147" s="36"/>
-      <c r="M147" s="36"/>
-      <c r="N147" s="36"/>
-      <c r="O147" s="36"/>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
-      <c r="L148" s="36"/>
-      <c r="M148" s="36"/>
-      <c r="N148" s="36"/>
-      <c r="O148" s="36"/>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
-      <c r="L149" s="36"/>
-      <c r="M149" s="36"/>
-      <c r="N149" s="36"/>
-      <c r="O149" s="36"/>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="36"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="36"/>
-      <c r="M150" s="36"/>
-      <c r="N150" s="36"/>
-      <c r="O150" s="36"/>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="36"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
-      <c r="L151" s="36"/>
-      <c r="M151" s="36"/>
-      <c r="N151" s="36"/>
-      <c r="O151" s="36"/>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-      <c r="L152" s="36"/>
-      <c r="M152" s="36"/>
-      <c r="N152" s="36"/>
-      <c r="O152" s="36"/>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="36"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
-      <c r="L153" s="36"/>
-      <c r="M153" s="36"/>
-      <c r="N153" s="36"/>
-      <c r="O153" s="36"/>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
-      <c r="L154" s="36"/>
-      <c r="M154" s="36"/>
-      <c r="N154" s="36"/>
-      <c r="O154" s="36"/>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
-      <c r="L155" s="36"/>
-      <c r="M155" s="36"/>
-      <c r="N155" s="36"/>
-      <c r="O155" s="36"/>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="A156" s="36"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-      <c r="L156" s="36"/>
-      <c r="M156" s="36"/>
-      <c r="N156" s="36"/>
-      <c r="O156" s="36"/>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="A157" s="36"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
-      <c r="L157" s="36"/>
-      <c r="M157" s="36"/>
-      <c r="N157" s="36"/>
-      <c r="O157" s="36"/>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="A158" s="36"/>
-      <c r="B158" s="36"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
-      <c r="L158" s="36"/>
-      <c r="M158" s="36"/>
-      <c r="N158" s="36"/>
-      <c r="O158" s="36"/>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="A159" s="36"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
-      <c r="L159" s="36"/>
-      <c r="M159" s="36"/>
-      <c r="N159" s="36"/>
-      <c r="O159" s="36"/>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="A160" s="36"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="36"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="36"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-      <c r="L160" s="36"/>
-      <c r="M160" s="36"/>
-      <c r="N160" s="36"/>
-      <c r="O160" s="36"/>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="A161" s="36"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
-      <c r="L161" s="36"/>
-      <c r="M161" s="36"/>
-      <c r="N161" s="36"/>
-      <c r="O161" s="36"/>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="A162" s="36"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="36"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
-      <c r="L162" s="36"/>
-      <c r="M162" s="36"/>
-      <c r="N162" s="36"/>
-      <c r="O162" s="36"/>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="A163" s="36"/>
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
-      <c r="L163" s="36"/>
-      <c r="M163" s="36"/>
-      <c r="N163" s="36"/>
-      <c r="O163" s="36"/>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="36"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
-      <c r="L164" s="36"/>
-      <c r="M164" s="36"/>
-      <c r="N164" s="36"/>
-      <c r="O164" s="36"/>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="A165" s="36"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="36"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="36"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
-      <c r="L165" s="36"/>
-      <c r="M165" s="36"/>
-      <c r="N165" s="36"/>
-      <c r="O165" s="36"/>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
-      <c r="L166" s="36"/>
-      <c r="M166" s="36"/>
-      <c r="N166" s="36"/>
-      <c r="O166" s="36"/>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="36"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="36"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
-      <c r="L167" s="36"/>
-      <c r="M167" s="36"/>
-      <c r="N167" s="36"/>
-      <c r="O167" s="36"/>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="A168" s="36"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="36"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="36"/>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
-      <c r="L168" s="36"/>
-      <c r="M168" s="36"/>
-      <c r="N168" s="36"/>
-      <c r="O168" s="36"/>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="A169" s="36"/>
-      <c r="B169" s="36"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
-      <c r="L169" s="36"/>
-      <c r="M169" s="36"/>
-      <c r="N169" s="36"/>
-      <c r="O169" s="36"/>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="A170" s="36"/>
-      <c r="B170" s="36"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
-      <c r="L170" s="36"/>
-      <c r="M170" s="36"/>
-      <c r="N170" s="36"/>
-      <c r="O170" s="36"/>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="A171" s="36"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="36"/>
-      <c r="E171" s="36"/>
-      <c r="F171" s="36"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
-      <c r="L171" s="36"/>
-      <c r="M171" s="36"/>
-      <c r="N171" s="36"/>
-      <c r="O171" s="36"/>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="36"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="36"/>
-      <c r="E172" s="36"/>
-      <c r="F172" s="36"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
-      <c r="L172" s="36"/>
-      <c r="M172" s="36"/>
-      <c r="N172" s="36"/>
-      <c r="O172" s="36"/>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="36"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="36"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-      <c r="L173" s="36"/>
-      <c r="M173" s="36"/>
-      <c r="N173" s="36"/>
-      <c r="O173" s="36"/>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="36"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
-      <c r="L174" s="36"/>
-      <c r="M174" s="36"/>
-      <c r="N174" s="36"/>
-      <c r="O174" s="36"/>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-      <c r="L175" s="36"/>
-      <c r="M175" s="36"/>
-      <c r="N175" s="36"/>
-      <c r="O175" s="36"/>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="36"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
-      <c r="L176" s="36"/>
-      <c r="M176" s="36"/>
-      <c r="N176" s="36"/>
-      <c r="O176" s="36"/>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="36"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
-      <c r="L177" s="36"/>
-      <c r="M177" s="36"/>
-      <c r="N177" s="36"/>
-      <c r="O177" s="36"/>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
-      <c r="L178" s="36"/>
-      <c r="M178" s="36"/>
-      <c r="N178" s="36"/>
-      <c r="O178" s="36"/>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="36"/>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
-      <c r="L179" s="36"/>
-      <c r="M179" s="36"/>
-      <c r="N179" s="36"/>
-      <c r="O179" s="36"/>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="36"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="36"/>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
-      <c r="L180" s="36"/>
-      <c r="M180" s="36"/>
-      <c r="N180" s="36"/>
-      <c r="O180" s="36"/>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="36"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
-      <c r="L181" s="36"/>
-      <c r="M181" s="36"/>
-      <c r="N181" s="36"/>
-      <c r="O181" s="36"/>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="36"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="36"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
-      <c r="L182" s="36"/>
-      <c r="M182" s="36"/>
-      <c r="N182" s="36"/>
-      <c r="O182" s="36"/>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="36"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
-      <c r="L183" s="36"/>
-      <c r="M183" s="36"/>
-      <c r="N183" s="36"/>
-      <c r="O183" s="36"/>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="36"/>
-      <c r="N184" s="36"/>
-      <c r="O184" s="36"/>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="36"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="36"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
-      <c r="L185" s="36"/>
-      <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
-      <c r="O185" s="36"/>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="36"/>
-      <c r="N186" s="36"/>
-      <c r="O186" s="36"/>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="A187" s="36"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
-      <c r="L187" s="36"/>
-      <c r="M187" s="36"/>
-      <c r="N187" s="36"/>
-      <c r="O187" s="36"/>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="A188" s="36"/>
-      <c r="B188" s="36"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-      <c r="L188" s="36"/>
-      <c r="M188" s="36"/>
-      <c r="N188" s="36"/>
-      <c r="O188" s="36"/>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="36"/>
-      <c r="B189" s="36"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-      <c r="L189" s="36"/>
-      <c r="M189" s="36"/>
-      <c r="N189" s="36"/>
-      <c r="O189" s="36"/>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="A190" s="36"/>
-      <c r="B190" s="36"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
-      <c r="L190" s="36"/>
-      <c r="M190" s="36"/>
-      <c r="N190" s="36"/>
-      <c r="O190" s="36"/>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="A191" s="36"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
-      <c r="L191" s="36"/>
-      <c r="M191" s="36"/>
-      <c r="N191" s="36"/>
-      <c r="O191" s="36"/>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="A192" s="36"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
-      <c r="L192" s="36"/>
-      <c r="M192" s="36"/>
-      <c r="N192" s="36"/>
-      <c r="O192" s="36"/>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="A193" s="36"/>
-      <c r="B193" s="36"/>
-      <c r="C193" s="36"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="36"/>
-      <c r="F193" s="36"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
-      <c r="L193" s="36"/>
-      <c r="M193" s="36"/>
-      <c r="N193" s="36"/>
-      <c r="O193" s="36"/>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="36"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="36"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="36"/>
-      <c r="F194" s="36"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
-      <c r="L194" s="36"/>
-      <c r="M194" s="36"/>
-      <c r="N194" s="36"/>
-      <c r="O194" s="36"/>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="36"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
-      <c r="E195" s="36"/>
-      <c r="F195" s="36"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
-      <c r="L195" s="36"/>
-      <c r="M195" s="36"/>
-      <c r="N195" s="36"/>
-      <c r="O195" s="36"/>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="36"/>
-      <c r="B196" s="36"/>
-      <c r="C196" s="36"/>
-      <c r="D196" s="36"/>
-      <c r="E196" s="36"/>
-      <c r="F196" s="36"/>
-      <c r="G196" s="36"/>
-      <c r="H196" s="36"/>
-      <c r="I196" s="36"/>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
-      <c r="L196" s="36"/>
-      <c r="M196" s="36"/>
-      <c r="N196" s="36"/>
-      <c r="O196" s="36"/>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="36"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
-      <c r="F197" s="36"/>
-      <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="36"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
-      <c r="L197" s="36"/>
-      <c r="M197" s="36"/>
-      <c r="N197" s="36"/>
-      <c r="O197" s="36"/>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="36"/>
-      <c r="B198" s="36"/>
-      <c r="C198" s="36"/>
-      <c r="D198" s="36"/>
-      <c r="E198" s="36"/>
-      <c r="F198" s="36"/>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
-      <c r="L198" s="36"/>
-      <c r="M198" s="36"/>
-      <c r="N198" s="36"/>
-      <c r="O198" s="36"/>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="36"/>
-      <c r="B199" s="36"/>
-      <c r="C199" s="36"/>
-      <c r="D199" s="36"/>
-      <c r="E199" s="36"/>
-      <c r="F199" s="36"/>
-      <c r="G199" s="36"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="36"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
-      <c r="L199" s="36"/>
-      <c r="M199" s="36"/>
-      <c r="N199" s="36"/>
-      <c r="O199" s="36"/>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="36"/>
-      <c r="B200" s="36"/>
-      <c r="C200" s="36"/>
-      <c r="D200" s="36"/>
-      <c r="E200" s="36"/>
-      <c r="F200" s="36"/>
-      <c r="G200" s="36"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="36"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
-      <c r="L200" s="36"/>
-      <c r="M200" s="36"/>
-      <c r="N200" s="36"/>
-      <c r="O200" s="36"/>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="36"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="36"/>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
-      <c r="L201" s="36"/>
-      <c r="M201" s="36"/>
-      <c r="N201" s="36"/>
-      <c r="O201" s="36"/>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="36"/>
-      <c r="B202" s="36"/>
-      <c r="C202" s="36"/>
-      <c r="D202" s="36"/>
-      <c r="E202" s="36"/>
-      <c r="F202" s="36"/>
-      <c r="G202" s="36"/>
-      <c r="H202" s="36"/>
-      <c r="I202" s="36"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
-      <c r="L202" s="36"/>
-      <c r="M202" s="36"/>
-      <c r="N202" s="36"/>
-      <c r="O202" s="36"/>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="A203" s="36"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="36"/>
-      <c r="D203" s="36"/>
-      <c r="E203" s="36"/>
-      <c r="F203" s="36"/>
-      <c r="G203" s="36"/>
-      <c r="H203" s="36"/>
-      <c r="I203" s="36"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
-      <c r="L203" s="36"/>
-      <c r="M203" s="36"/>
-      <c r="N203" s="36"/>
-      <c r="O203" s="36"/>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="A204" s="36"/>
-      <c r="B204" s="36"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="36"/>
-      <c r="E204" s="36"/>
-      <c r="F204" s="36"/>
-      <c r="G204" s="36"/>
-      <c r="H204" s="36"/>
-      <c r="I204" s="36"/>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
-      <c r="L204" s="36"/>
-      <c r="M204" s="36"/>
-      <c r="N204" s="36"/>
-      <c r="O204" s="36"/>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="A205" s="36"/>
-      <c r="B205" s="36"/>
-      <c r="C205" s="36"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="36"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
-      <c r="L205" s="36"/>
-      <c r="M205" s="36"/>
-      <c r="N205" s="36"/>
-      <c r="O205" s="36"/>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="A206" s="36"/>
-      <c r="B206" s="36"/>
-      <c r="C206" s="36"/>
-      <c r="D206" s="36"/>
-      <c r="E206" s="36"/>
-      <c r="F206" s="36"/>
-      <c r="G206" s="36"/>
-      <c r="H206" s="36"/>
-      <c r="I206" s="36"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
-      <c r="L206" s="36"/>
-      <c r="M206" s="36"/>
-      <c r="N206" s="36"/>
-      <c r="O206" s="36"/>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="A207" s="36"/>
-      <c r="B207" s="36"/>
-      <c r="C207" s="36"/>
-      <c r="D207" s="36"/>
-      <c r="E207" s="36"/>
-      <c r="F207" s="36"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
-      <c r="L207" s="36"/>
-      <c r="M207" s="36"/>
-      <c r="N207" s="36"/>
-      <c r="O207" s="36"/>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="A208" s="36"/>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
-      <c r="E208" s="36"/>
-      <c r="F208" s="36"/>
-      <c r="G208" s="36"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
-      <c r="L208" s="36"/>
-      <c r="M208" s="36"/>
-      <c r="N208" s="36"/>
-      <c r="O208" s="36"/>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="A209" s="36"/>
-      <c r="B209" s="36"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="36"/>
-      <c r="E209" s="36"/>
-      <c r="F209" s="36"/>
-      <c r="G209" s="36"/>
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
-      <c r="L209" s="36"/>
-      <c r="M209" s="36"/>
-      <c r="N209" s="36"/>
-      <c r="O209" s="36"/>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="A210" s="36"/>
-      <c r="B210" s="36"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="36"/>
-      <c r="E210" s="36"/>
-      <c r="F210" s="36"/>
-      <c r="G210" s="36"/>
-      <c r="H210" s="36"/>
-      <c r="I210" s="36"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
-      <c r="L210" s="36"/>
-      <c r="M210" s="36"/>
-      <c r="N210" s="36"/>
-      <c r="O210" s="36"/>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="A211" s="36"/>
-      <c r="B211" s="36"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="36"/>
-      <c r="F211" s="36"/>
-      <c r="G211" s="36"/>
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="36"/>
-      <c r="L211" s="36"/>
-      <c r="M211" s="36"/>
-      <c r="N211" s="36"/>
-      <c r="O211" s="36"/>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="A212" s="36"/>
-      <c r="B212" s="36"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="36"/>
-      <c r="E212" s="36"/>
-      <c r="F212" s="36"/>
-      <c r="G212" s="36"/>
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="36"/>
-      <c r="L212" s="36"/>
-      <c r="M212" s="36"/>
-      <c r="N212" s="36"/>
-      <c r="O212" s="36"/>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="A213" s="36"/>
-      <c r="B213" s="36"/>
-      <c r="C213" s="36"/>
-      <c r="D213" s="36"/>
-      <c r="E213" s="36"/>
-      <c r="F213" s="36"/>
-      <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
-      <c r="I213" s="36"/>
-      <c r="J213" s="36"/>
-      <c r="K213" s="36"/>
-      <c r="L213" s="36"/>
-      <c r="M213" s="36"/>
-      <c r="N213" s="36"/>
-      <c r="O213" s="36"/>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="A214" s="36"/>
-      <c r="B214" s="36"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="36"/>
-      <c r="E214" s="36"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="36"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="36"/>
-      <c r="L214" s="36"/>
-      <c r="M214" s="36"/>
-      <c r="N214" s="36"/>
-      <c r="O214" s="36"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:O37"/>
@@ -40050,7 +36885,7 @@
     <mergeCell ref="K7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>